--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  HERRADURA  Julio    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  HERRADURA  Julio    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -24,8 +24,9 @@
     <sheet name="  COMPRAS   MAYO    2 0 2 3    " sheetId="12" r:id="rId10"/>
     <sheet name="   J U N I O     2 0 2 3     " sheetId="13" r:id="rId11"/>
     <sheet name=" COMPRAS    JUNIO   2 0 2 3    " sheetId="14" r:id="rId12"/>
-    <sheet name="Hoja2" sheetId="15" r:id="rId13"/>
-    <sheet name="Hoja3" sheetId="16" r:id="rId14"/>
+    <sheet name="   J U L I O     2 0 2 3       " sheetId="15" r:id="rId13"/>
+    <sheet name="   COMPRAS   JULIO    2 0 2 3  " sheetId="16" r:id="rId14"/>
+    <sheet name="Hoja1" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -384,8 +385,66 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="383">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1541,6 +1600,12 @@
   </si>
   <si>
     <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A    JUNIO       2 0 2 3</t>
+  </si>
+  <si>
+    <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A    JULIO       2 0 2 3</t>
+  </si>
+  <si>
+    <t>NOMINA # 27</t>
   </si>
 </sst>
 </file>
@@ -3615,68 +3680,8 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="8" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="16" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3729,6 +3734,69 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3759,6 +3827,12 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3768,20 +3842,11 @@
     <xf numFmtId="166" fontId="16" fillId="9" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3792,12 +3857,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFCCFF33"/>
       <color rgb="FFFF9900"/>
-      <color rgb="FF00FF00"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF0000FF"/>
     </mruColors>
@@ -6369,6 +6434,432 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BD9866-FF79-48A3-8125-274D02C358E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="11715749"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB40F1F-8813-4BFC-8C98-C4B9398EBA6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="11210925"/>
+          <a:ext cx="533400" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7705E016-15EF-48E9-8112-55956DB9A028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="11715749"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFF9FBA-ADFD-4F21-8022-9D7FA8728028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="11191875"/>
+          <a:ext cx="1781175" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF22E63-49BB-45F3-B7CF-F3196DA45995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7648576" y="10325097"/>
+          <a:ext cx="200026" cy="2124077"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>64250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB3AFF8-1821-4422-8C39-1F09F5802A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="0" y="12027650"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C60128-65EF-4D68-902C-E7D41384C4E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5000625" y="12049125"/>
+          <a:ext cx="923925" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -6663,23 +7154,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="342"/>
-      <c r="C1" s="344" t="s">
+      <c r="B1" s="348"/>
+      <c r="C1" s="350" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="351"/>
+      <c r="H1" s="351"/>
+      <c r="I1" s="351"/>
+      <c r="J1" s="351"/>
+      <c r="K1" s="351"/>
+      <c r="L1" s="351"/>
+      <c r="M1" s="351"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="343"/>
+      <c r="B2" s="349"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -6689,21 +7180,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="346" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="347"/>
+      <c r="B3" s="352" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="353"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="348" t="s">
+      <c r="H3" s="354" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="348"/>
+      <c r="I3" s="354"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="351" t="s">
+      <c r="R3" s="331" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6718,14 +7209,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="353" t="s">
+      <c r="E4" s="333" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="354"/>
-      <c r="H4" s="355" t="s">
+      <c r="F4" s="334"/>
+      <c r="H4" s="335" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="356"/>
+      <c r="I4" s="336"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -6735,11 +7226,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="357" t="s">
+      <c r="P4" s="337" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="358"/>
-      <c r="R4" s="352"/>
+      <c r="Q4" s="338"/>
+      <c r="R4" s="332"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8544,11 +9035,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="349">
+      <c r="M49" s="355">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="360">
+      <c r="N49" s="340">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -8583,8 +9074,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="350"/>
-      <c r="N50" s="361"/>
+      <c r="M50" s="356"/>
+      <c r="N50" s="341"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -8676,29 +9167,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="362" t="s">
+      <c r="H55" s="342" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="363"/>
+      <c r="I55" s="343"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="364">
+      <c r="K55" s="344">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="365"/>
-      <c r="M55" s="366">
+      <c r="L55" s="345"/>
+      <c r="M55" s="346">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="367"/>
+      <c r="N55" s="347"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="359" t="s">
+      <c r="D56" s="339" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="359"/>
+      <c r="E56" s="339"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -8709,22 +9200,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="330" t="s">
+      <c r="D57" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="330"/>
+      <c r="E57" s="357"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="331" t="s">
+      <c r="I57" s="358" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="332"/>
-      <c r="K57" s="333">
+      <c r="J57" s="359"/>
+      <c r="K57" s="360">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="334"/>
+      <c r="L57" s="361"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -8755,11 +9246,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="335">
+      <c r="K59" s="362">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="336"/>
+      <c r="L59" s="363"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -8776,22 +9267,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="337" t="s">
+      <c r="D61" s="364" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="338"/>
+      <c r="E61" s="365"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="339" t="s">
+      <c r="I61" s="366" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="340"/>
-      <c r="K61" s="341">
+      <c r="J61" s="367"/>
+      <c r="K61" s="368">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="341"/>
+      <c r="L61" s="368"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -8916,6 +9407,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -8925,18 +9428,6 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10340,8 +10831,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10366,23 +10857,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="342"/>
-      <c r="C1" s="344" t="s">
+      <c r="B1" s="348"/>
+      <c r="C1" s="350" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="351"/>
+      <c r="H1" s="351"/>
+      <c r="I1" s="351"/>
+      <c r="J1" s="351"/>
+      <c r="K1" s="351"/>
+      <c r="L1" s="351"/>
+      <c r="M1" s="351"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="343"/>
+      <c r="B2" s="349"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10395,21 +10886,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="346" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="347"/>
+      <c r="B3" s="352" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="353"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="348" t="s">
+      <c r="H3" s="354" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="348"/>
+      <c r="I3" s="354"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="383" t="s">
+      <c r="R3" s="384" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10424,14 +10915,14 @@
       <c r="D4" s="307">
         <v>45081</v>
       </c>
-      <c r="E4" s="353" t="s">
+      <c r="E4" s="333" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="354"/>
-      <c r="H4" s="355" t="s">
+      <c r="F4" s="334"/>
+      <c r="H4" s="335" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="356"/>
+      <c r="I4" s="336"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -10441,11 +10932,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="369" t="s">
+      <c r="P4" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="370"/>
-      <c r="R4" s="384"/>
+      <c r="Q4" s="371"/>
+      <c r="R4" s="385"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -11874,8 +12365,7 @@
         <v>365.4</v>
       </c>
       <c r="Q35" s="236">
-        <f t="shared" si="1"/>
-        <v>365.4</v>
+        <v>0</v>
       </c>
       <c r="R35" s="238">
         <v>0</v>
@@ -11913,8 +12403,7 @@
         <v>1225.1199999999999</v>
       </c>
       <c r="Q36" s="236">
-        <f t="shared" si="1"/>
-        <v>1225.1199999999999</v>
+        <v>0</v>
       </c>
       <c r="R36" s="238">
         <v>0</v>
@@ -11934,7 +12423,7 @@
       <c r="J37" s="86">
         <v>45084</v>
       </c>
-      <c r="K37" s="385" t="s">
+      <c r="K37" s="330" t="s">
         <v>378</v>
       </c>
       <c r="L37" s="216">
@@ -12231,11 +12720,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="349">
+      <c r="M45" s="355">
         <f>SUM(M5:M39)</f>
         <v>3170751</v>
       </c>
-      <c r="N45" s="360">
+      <c r="N45" s="340">
         <f>SUM(N5:N39)</f>
         <v>31751.230000000003</v>
       </c>
@@ -12245,7 +12734,7 @@
       </c>
       <c r="Q45" s="328">
         <f>SUM(Q21:Q44)</f>
-        <v>1843.4700000000262</v>
+        <v>252.95000000002619</v>
       </c>
       <c r="R45" s="329">
         <f>SUM(R5:R39)</f>
@@ -12265,8 +12754,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="350"/>
-      <c r="N46" s="361"/>
+      <c r="M46" s="356"/>
+      <c r="N46" s="341"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -12358,29 +12847,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="362" t="s">
+      <c r="H51" s="342" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="363"/>
+      <c r="I51" s="343"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="364">
+      <c r="K51" s="344">
         <f>I49+L49</f>
         <v>66093.360000000015</v>
       </c>
-      <c r="L51" s="365"/>
-      <c r="M51" s="366">
+      <c r="L51" s="345"/>
+      <c r="M51" s="346">
         <f>N45+M45</f>
         <v>3202502.23</v>
       </c>
-      <c r="N51" s="367"/>
+      <c r="N51" s="347"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="359" t="s">
+      <c r="D52" s="339" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="359"/>
+      <c r="E52" s="339"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>3132761.64</v>
@@ -12391,22 +12880,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="330" t="s">
+      <c r="D53" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="330"/>
+      <c r="E53" s="357"/>
       <c r="F53" s="131">
         <v>-3128572.23</v>
       </c>
-      <c r="I53" s="331" t="s">
+      <c r="I53" s="358" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="332"/>
-      <c r="K53" s="371">
+      <c r="J53" s="359"/>
+      <c r="K53" s="372">
         <f>F55+F56+F57</f>
         <v>417897.52000000014</v>
       </c>
-      <c r="L53" s="372"/>
+      <c r="L53" s="373"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -12437,11 +12926,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="373">
+      <c r="K55" s="374">
         <f>-C4</f>
         <v>-345633.69</v>
       </c>
-      <c r="L55" s="374"/>
+      <c r="L55" s="375"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -12458,22 +12947,22 @@
       <c r="C57" s="150">
         <v>45109</v>
       </c>
-      <c r="D57" s="337" t="s">
+      <c r="D57" s="364" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="338"/>
+      <c r="E57" s="365"/>
       <c r="F57" s="316">
         <v>359108.11</v>
       </c>
-      <c r="I57" s="378" t="s">
+      <c r="I57" s="381" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="379"/>
-      <c r="K57" s="380">
+      <c r="J57" s="382"/>
+      <c r="K57" s="383">
         <f>K53+K55</f>
         <v>72263.830000000133</v>
       </c>
-      <c r="L57" s="380"/>
+      <c r="L57" s="383"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -12598,18 +13087,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12619,6 +13096,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12634,8 +13123,8 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13997,18 +14486,3214 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:U79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="132" customWidth="1"/>
+    <col min="3" max="3" width="16" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="254" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="252" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="293" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="348"/>
+      <c r="C1" s="350" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" s="351"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="351"/>
+      <c r="H1" s="351"/>
+      <c r="I1" s="351"/>
+      <c r="J1" s="351"/>
+      <c r="K1" s="351"/>
+      <c r="L1" s="351"/>
+      <c r="M1" s="351"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="349"/>
+      <c r="C2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="303" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" s="304"/>
+      <c r="L2" s="253"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="352" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="353"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="354" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="354"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="6"/>
+      <c r="R3" s="384" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
+        <v>359108.11</v>
+      </c>
+      <c r="D4" s="307">
+        <v>45109</v>
+      </c>
+      <c r="E4" s="333" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="334"/>
+      <c r="H4" s="335" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="336"/>
+      <c r="J4" s="255"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="370" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="371"/>
+      <c r="R4" s="385"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="24">
+        <v>45110</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27">
+        <v>45110</v>
+      </c>
+      <c r="F5" s="28">
+        <v>151348</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30">
+        <v>45110</v>
+      </c>
+      <c r="I5" s="31">
+        <v>132</v>
+      </c>
+      <c r="J5" s="251"/>
+      <c r="K5" s="257"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="33">
+        <f>33500+141071</f>
+        <v>174571</v>
+      </c>
+      <c r="N5" s="34">
+        <v>0</v>
+      </c>
+      <c r="O5" s="35"/>
+      <c r="P5" s="235">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>174703</v>
+      </c>
+      <c r="Q5" s="236">
+        <v>0</v>
+      </c>
+      <c r="R5" s="237">
+        <f>M5-F5</f>
+        <v>23223</v>
+      </c>
+      <c r="S5" s="37"/>
+    </row>
+    <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24">
+        <v>45111</v>
+      </c>
+      <c r="C6" s="25">
+        <v>4380</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" s="27">
+        <v>45111</v>
+      </c>
+      <c r="F6" s="28">
+        <v>94080</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30">
+        <v>45111</v>
+      </c>
+      <c r="I6" s="31">
+        <v>81</v>
+      </c>
+      <c r="J6" s="258"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="259"/>
+      <c r="M6" s="33">
+        <f>8000+91353</f>
+        <v>99353</v>
+      </c>
+      <c r="N6" s="34">
+        <v>464</v>
+      </c>
+      <c r="O6" s="35"/>
+      <c r="P6" s="235">
+        <f>N6+M6+L6+I6+C6</f>
+        <v>104278</v>
+      </c>
+      <c r="Q6" s="236">
+        <f>P6-F6-10184</f>
+        <v>14</v>
+      </c>
+      <c r="R6" s="237">
+        <v>10184</v>
+      </c>
+      <c r="S6" s="37"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24">
+        <v>45112</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="27">
+        <v>45112</v>
+      </c>
+      <c r="F7" s="28">
+        <v>54602</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30">
+        <v>45112</v>
+      </c>
+      <c r="I7" s="31">
+        <v>147</v>
+      </c>
+      <c r="J7" s="258"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="259"/>
+      <c r="M7" s="33">
+        <v>54455</v>
+      </c>
+      <c r="N7" s="34">
+        <v>0</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="235">
+        <f>N7+M7+L7+I7+C7</f>
+        <v>54602</v>
+      </c>
+      <c r="Q7" s="236">
+        <f>P7-F7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="238">
+        <v>0</v>
+      </c>
+      <c r="S7" s="37"/>
+    </row>
+    <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24">
+        <v>45113</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="27">
+        <v>45113</v>
+      </c>
+      <c r="F8" s="28">
+        <v>117199</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30">
+        <v>45113</v>
+      </c>
+      <c r="I8" s="31">
+        <v>15</v>
+      </c>
+      <c r="J8" s="258"/>
+      <c r="K8" s="260"/>
+      <c r="L8" s="259"/>
+      <c r="M8" s="33">
+        <f>64800+52384</f>
+        <v>117184</v>
+      </c>
+      <c r="N8" s="34">
+        <v>0</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="235">
+        <f t="shared" ref="P8:P45" si="0">N8+M8+L8+I8+C8</f>
+        <v>117199</v>
+      </c>
+      <c r="Q8" s="236">
+        <f t="shared" ref="Q8:Q47" si="1">P8-F8</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="238">
+        <v>0</v>
+      </c>
+      <c r="S8" s="37"/>
+    </row>
+    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24">
+        <v>45114</v>
+      </c>
+      <c r="C9" s="25">
+        <v>4661</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="27">
+        <v>45114</v>
+      </c>
+      <c r="F9" s="28">
+        <v>153829</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30">
+        <v>45114</v>
+      </c>
+      <c r="I9" s="31">
+        <v>168</v>
+      </c>
+      <c r="J9" s="258"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="259"/>
+      <c r="M9" s="33">
+        <f>40800+114763</f>
+        <v>155563</v>
+      </c>
+      <c r="N9" s="34">
+        <v>834</v>
+      </c>
+      <c r="O9" s="35"/>
+      <c r="P9" s="235">
+        <f t="shared" si="0"/>
+        <v>161226</v>
+      </c>
+      <c r="Q9" s="236">
+        <v>0</v>
+      </c>
+      <c r="R9" s="237">
+        <v>7397</v>
+      </c>
+      <c r="S9" s="37"/>
+    </row>
+    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24">
+        <v>45115</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="27">
+        <v>45115</v>
+      </c>
+      <c r="F10" s="28">
+        <v>148445</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30">
+        <v>45115</v>
+      </c>
+      <c r="I10" s="31">
+        <v>208</v>
+      </c>
+      <c r="J10" s="258">
+        <v>45115</v>
+      </c>
+      <c r="K10" s="262" t="s">
+        <v>382</v>
+      </c>
+      <c r="L10" s="263">
+        <v>9055</v>
+      </c>
+      <c r="M10" s="33">
+        <f>50500+87880</f>
+        <v>138380</v>
+      </c>
+      <c r="N10" s="34">
+        <v>828</v>
+      </c>
+      <c r="O10" s="35"/>
+      <c r="P10" s="235">
+        <f>N10+M10+L10+I10+C10</f>
+        <v>148471</v>
+      </c>
+      <c r="Q10" s="236">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="R10" s="238">
+        <v>0</v>
+      </c>
+      <c r="S10" s="37"/>
+      <c r="U10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24">
+        <v>45116</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="27">
+        <v>45116</v>
+      </c>
+      <c r="F11" s="28">
+        <v>82418</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30">
+        <v>45116</v>
+      </c>
+      <c r="I11" s="31">
+        <v>69</v>
+      </c>
+      <c r="J11" s="258"/>
+      <c r="K11" s="261"/>
+      <c r="L11" s="259"/>
+      <c r="M11" s="33">
+        <f>81000+14139</f>
+        <v>95139</v>
+      </c>
+      <c r="N11" s="34">
+        <v>901</v>
+      </c>
+      <c r="O11" s="35"/>
+      <c r="P11" s="235">
+        <f>N11+M11+L11+I11+C11</f>
+        <v>96109</v>
+      </c>
+      <c r="Q11" s="236">
+        <f>P11-F11-13664</f>
+        <v>27</v>
+      </c>
+      <c r="R11" s="237">
+        <v>13664</v>
+      </c>
+      <c r="S11" s="37"/>
+    </row>
+    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24">
+        <v>45117</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="27">
+        <v>45117</v>
+      </c>
+      <c r="F12" s="28">
+        <v>195880</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30">
+        <v>45117</v>
+      </c>
+      <c r="I12" s="31">
+        <v>167</v>
+      </c>
+      <c r="J12" s="258"/>
+      <c r="K12" s="264"/>
+      <c r="L12" s="259"/>
+      <c r="M12" s="33">
+        <f>68000+127713</f>
+        <v>195713</v>
+      </c>
+      <c r="N12" s="34">
+        <v>0</v>
+      </c>
+      <c r="O12" s="35"/>
+      <c r="P12" s="235">
+        <f t="shared" si="0"/>
+        <v>195880</v>
+      </c>
+      <c r="Q12" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="238">
+        <v>0</v>
+      </c>
+      <c r="S12" s="37"/>
+    </row>
+    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24">
+        <v>45118</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="27">
+        <v>45118</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30">
+        <v>45118</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="258"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="259"/>
+      <c r="M13" s="33">
+        <v>0</v>
+      </c>
+      <c r="N13" s="34">
+        <v>0</v>
+      </c>
+      <c r="O13" s="35"/>
+      <c r="P13" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="238">
+        <v>0</v>
+      </c>
+      <c r="S13" s="37"/>
+    </row>
+    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24">
+        <v>45119</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="27">
+        <v>45119</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30">
+        <v>45119</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="258"/>
+      <c r="K14" s="260"/>
+      <c r="L14" s="259"/>
+      <c r="M14" s="33">
+        <v>0</v>
+      </c>
+      <c r="N14" s="34">
+        <v>0</v>
+      </c>
+      <c r="O14" s="35"/>
+      <c r="P14" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="238">
+        <v>0</v>
+      </c>
+      <c r="S14" s="37"/>
+    </row>
+    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24">
+        <v>45120</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="27">
+        <v>45120</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30">
+        <v>45120</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="258"/>
+      <c r="K15" s="260"/>
+      <c r="L15" s="259"/>
+      <c r="M15" s="33">
+        <v>0</v>
+      </c>
+      <c r="N15" s="34">
+        <v>0</v>
+      </c>
+      <c r="O15" s="314"/>
+      <c r="P15" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="238">
+        <v>0</v>
+      </c>
+      <c r="S15" s="37"/>
+    </row>
+    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24">
+        <v>45121</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="27">
+        <v>45121</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30">
+        <v>45121</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="258"/>
+      <c r="K16" s="260"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="33">
+        <v>0</v>
+      </c>
+      <c r="N16" s="34">
+        <v>0</v>
+      </c>
+      <c r="O16" s="35"/>
+      <c r="P16" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="238">
+        <v>0</v>
+      </c>
+      <c r="S16" s="37"/>
+    </row>
+    <row r="17" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23"/>
+      <c r="B17" s="24">
+        <v>45122</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="27">
+        <v>45122</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30">
+        <v>45122</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="258"/>
+      <c r="K17" s="326"/>
+      <c r="L17" s="263"/>
+      <c r="M17" s="33">
+        <v>0</v>
+      </c>
+      <c r="N17" s="34">
+        <v>0</v>
+      </c>
+      <c r="O17" s="35"/>
+      <c r="P17" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="238">
+        <v>0</v>
+      </c>
+      <c r="S17" s="37"/>
+    </row>
+    <row r="18" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24">
+        <v>45123</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="27">
+        <v>45123</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30">
+        <v>45123</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="258"/>
+      <c r="K18" s="265"/>
+      <c r="L18" s="259"/>
+      <c r="M18" s="33">
+        <v>0</v>
+      </c>
+      <c r="N18" s="34">
+        <v>0</v>
+      </c>
+      <c r="O18" s="35"/>
+      <c r="P18" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="238">
+        <v>0</v>
+      </c>
+      <c r="S18" s="37"/>
+    </row>
+    <row r="19" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24">
+        <v>45124</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="27">
+        <v>45124</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30">
+        <v>45124</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="258"/>
+      <c r="K19" s="266"/>
+      <c r="L19" s="267"/>
+      <c r="M19" s="33">
+        <v>0</v>
+      </c>
+      <c r="N19" s="34">
+        <v>0</v>
+      </c>
+      <c r="O19" s="35"/>
+      <c r="P19" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="238">
+        <v>0</v>
+      </c>
+      <c r="S19" s="37"/>
+    </row>
+    <row r="20" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24">
+        <v>45125</v>
+      </c>
+      <c r="C20" s="25">
+        <v>0</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="27">
+        <v>45125</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30">
+        <v>45125</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="258"/>
+      <c r="K20" s="262"/>
+      <c r="L20" s="263"/>
+      <c r="M20" s="33">
+        <v>0</v>
+      </c>
+      <c r="N20" s="34">
+        <v>0</v>
+      </c>
+      <c r="O20" s="35"/>
+      <c r="P20" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="238">
+        <v>0</v>
+      </c>
+      <c r="S20" s="37"/>
+    </row>
+    <row r="21" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24">
+        <v>45126</v>
+      </c>
+      <c r="C21" s="25">
+        <v>0</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="27">
+        <v>45126</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30">
+        <v>45126</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="258"/>
+      <c r="K21" s="268"/>
+      <c r="L21" s="263"/>
+      <c r="M21" s="33">
+        <v>0</v>
+      </c>
+      <c r="N21" s="34">
+        <v>0</v>
+      </c>
+      <c r="O21" s="35"/>
+      <c r="P21" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="238">
+        <v>0</v>
+      </c>
+      <c r="S21" s="37"/>
+    </row>
+    <row r="22" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23"/>
+      <c r="B22" s="24">
+        <v>45127</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="27">
+        <v>45127</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30">
+        <v>45127</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="258"/>
+      <c r="K22" s="302"/>
+      <c r="L22" s="269"/>
+      <c r="M22" s="33">
+        <v>0</v>
+      </c>
+      <c r="N22" s="34">
+        <v>0</v>
+      </c>
+      <c r="O22" s="315"/>
+      <c r="P22" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="238">
+        <v>0</v>
+      </c>
+      <c r="S22" s="37"/>
+    </row>
+    <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24">
+        <v>45128</v>
+      </c>
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="27">
+        <v>45128</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30">
+        <v>45128</v>
+      </c>
+      <c r="I23" s="31"/>
+      <c r="J23" s="270"/>
+      <c r="K23" s="271"/>
+      <c r="L23" s="263"/>
+      <c r="M23" s="33">
+        <v>0</v>
+      </c>
+      <c r="N23" s="34">
+        <v>0</v>
+      </c>
+      <c r="O23" s="35"/>
+      <c r="P23" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="238">
+        <v>0</v>
+      </c>
+      <c r="S23" s="37"/>
+    </row>
+    <row r="24" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24">
+        <v>45129</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="42"/>
+      <c r="E24" s="27">
+        <v>45129</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30">
+        <v>45129</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="272"/>
+      <c r="K24" s="271"/>
+      <c r="L24" s="273"/>
+      <c r="M24" s="33">
+        <v>0</v>
+      </c>
+      <c r="N24" s="34">
+        <v>0</v>
+      </c>
+      <c r="O24" s="35"/>
+      <c r="P24" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="238">
+        <v>0</v>
+      </c>
+      <c r="S24" s="37"/>
+    </row>
+    <row r="25" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24">
+        <v>45130</v>
+      </c>
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="27">
+        <v>45130</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30">
+        <v>45130</v>
+      </c>
+      <c r="I25" s="31"/>
+      <c r="J25" s="274"/>
+      <c r="K25" s="275"/>
+      <c r="L25" s="276"/>
+      <c r="M25" s="33">
+        <v>0</v>
+      </c>
+      <c r="N25" s="34">
+        <v>0</v>
+      </c>
+      <c r="O25" s="35"/>
+      <c r="P25" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="238">
+        <v>0</v>
+      </c>
+      <c r="S25" s="37"/>
+    </row>
+    <row r="26" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="24">
+        <v>45131</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="27">
+        <v>45131</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30">
+        <v>45131</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="J26" s="258"/>
+      <c r="K26" s="271"/>
+      <c r="L26" s="263"/>
+      <c r="M26" s="33">
+        <v>0</v>
+      </c>
+      <c r="N26" s="34">
+        <v>0</v>
+      </c>
+      <c r="O26" s="35"/>
+      <c r="P26" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="238">
+        <v>0</v>
+      </c>
+      <c r="S26" s="37"/>
+    </row>
+    <row r="27" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="24">
+        <v>45132</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="27">
+        <v>45132</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30">
+        <v>45132</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="277"/>
+      <c r="K27" s="275"/>
+      <c r="L27" s="276"/>
+      <c r="M27" s="33">
+        <v>0</v>
+      </c>
+      <c r="N27" s="34">
+        <v>0</v>
+      </c>
+      <c r="O27" s="35"/>
+      <c r="P27" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="238">
+        <v>0</v>
+      </c>
+      <c r="S27" s="37"/>
+    </row>
+    <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24">
+        <v>45133</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="27">
+        <v>45133</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30">
+        <v>45133</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="278"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="276"/>
+      <c r="M28" s="33">
+        <v>0</v>
+      </c>
+      <c r="N28" s="34">
+        <v>0</v>
+      </c>
+      <c r="O28" s="35"/>
+      <c r="P28" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="238">
+        <v>0</v>
+      </c>
+      <c r="S28" s="37"/>
+    </row>
+    <row r="29" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24">
+        <v>45134</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0</v>
+      </c>
+      <c r="D29" s="72"/>
+      <c r="E29" s="27">
+        <v>45134</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30">
+        <v>45134</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="J29" s="277"/>
+      <c r="K29" s="279"/>
+      <c r="L29" s="276"/>
+      <c r="M29" s="33">
+        <v>0</v>
+      </c>
+      <c r="N29" s="34">
+        <v>0</v>
+      </c>
+      <c r="O29" s="35"/>
+      <c r="P29" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="238">
+        <v>0</v>
+      </c>
+      <c r="S29" s="37"/>
+      <c r="T29" s="9"/>
+    </row>
+    <row r="30" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24">
+        <v>45135</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0</v>
+      </c>
+      <c r="D30" s="72"/>
+      <c r="E30" s="27">
+        <v>45135</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30">
+        <v>45135</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="280"/>
+      <c r="L30" s="281"/>
+      <c r="M30" s="33">
+        <v>0</v>
+      </c>
+      <c r="N30" s="34">
+        <v>0</v>
+      </c>
+      <c r="O30" s="35"/>
+      <c r="P30" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="238">
+        <v>0</v>
+      </c>
+      <c r="S30" s="37"/>
+    </row>
+    <row r="31" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24">
+        <v>45136</v>
+      </c>
+      <c r="C31" s="25">
+        <v>0</v>
+      </c>
+      <c r="D31" s="77"/>
+      <c r="E31" s="27">
+        <v>45136</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30">
+        <v>45136</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="278"/>
+      <c r="K31" s="275"/>
+      <c r="L31" s="276"/>
+      <c r="M31" s="33">
+        <v>0</v>
+      </c>
+      <c r="N31" s="34">
+        <v>0</v>
+      </c>
+      <c r="O31" s="35"/>
+      <c r="P31" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="238">
+        <v>0</v>
+      </c>
+      <c r="S31" s="37"/>
+    </row>
+    <row r="32" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24">
+        <v>45137</v>
+      </c>
+      <c r="C32" s="25">
+        <v>0</v>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="E32" s="27">
+        <v>45137</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30">
+        <v>45137</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="280"/>
+      <c r="L32" s="281"/>
+      <c r="M32" s="33">
+        <v>0</v>
+      </c>
+      <c r="N32" s="34">
+        <v>0</v>
+      </c>
+      <c r="O32" s="35"/>
+      <c r="P32" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="238">
+        <v>0</v>
+      </c>
+      <c r="S32" s="37"/>
+    </row>
+    <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="282"/>
+      <c r="L33" s="216"/>
+      <c r="M33" s="33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="34">
+        <v>0</v>
+      </c>
+      <c r="O33" s="35"/>
+      <c r="P33" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="238">
+        <v>0</v>
+      </c>
+      <c r="S33" s="37"/>
+    </row>
+    <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="284"/>
+      <c r="M34" s="33">
+        <v>0</v>
+      </c>
+      <c r="N34" s="34">
+        <v>0</v>
+      </c>
+      <c r="O34" s="35"/>
+      <c r="P34" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="238">
+        <v>0</v>
+      </c>
+      <c r="S34" s="37"/>
+    </row>
+    <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="282"/>
+      <c r="L35" s="216"/>
+      <c r="M35" s="33">
+        <v>0</v>
+      </c>
+      <c r="N35" s="34">
+        <v>0</v>
+      </c>
+      <c r="O35" s="35"/>
+      <c r="P35" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="238">
+        <v>0</v>
+      </c>
+      <c r="S35" s="37"/>
+    </row>
+    <row r="36" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="285"/>
+      <c r="L36" s="216"/>
+      <c r="M36" s="33">
+        <v>0</v>
+      </c>
+      <c r="N36" s="34">
+        <v>0</v>
+      </c>
+      <c r="O36" s="35"/>
+      <c r="P36" s="235">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="238">
+        <v>0</v>
+      </c>
+      <c r="S36" s="37"/>
+    </row>
+    <row r="37" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="330"/>
+      <c r="L37" s="216"/>
+      <c r="M37" s="33">
+        <v>0</v>
+      </c>
+      <c r="N37" s="34">
+        <v>0</v>
+      </c>
+      <c r="O37" s="35"/>
+      <c r="P37" s="235">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="238">
+        <v>0</v>
+      </c>
+      <c r="S37" s="37"/>
+    </row>
+    <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="282"/>
+      <c r="L38" s="216"/>
+      <c r="M38" s="33">
+        <v>0</v>
+      </c>
+      <c r="N38" s="34">
+        <v>0</v>
+      </c>
+      <c r="O38" s="35"/>
+      <c r="P38" s="235">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="238">
+        <v>0</v>
+      </c>
+      <c r="S38" s="37"/>
+    </row>
+    <row r="39" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="319"/>
+      <c r="L39" s="281"/>
+      <c r="M39" s="33">
+        <v>0</v>
+      </c>
+      <c r="N39" s="34">
+        <v>0</v>
+      </c>
+      <c r="O39" s="35"/>
+      <c r="P39" s="235">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="238">
+        <v>0</v>
+      </c>
+      <c r="S39" s="37"/>
+    </row>
+    <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="231"/>
+      <c r="L40" s="281"/>
+      <c r="M40" s="33">
+        <v>0</v>
+      </c>
+      <c r="N40" s="34">
+        <v>0</v>
+      </c>
+      <c r="O40" s="35"/>
+      <c r="P40" s="235">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="238">
+        <v>0</v>
+      </c>
+      <c r="S40" s="37"/>
+    </row>
+    <row r="41" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="305"/>
+      <c r="L41" s="281"/>
+      <c r="M41" s="33">
+        <v>0</v>
+      </c>
+      <c r="N41" s="34">
+        <v>0</v>
+      </c>
+      <c r="O41" s="35"/>
+      <c r="P41" s="235">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="238">
+        <v>0</v>
+      </c>
+      <c r="S41" s="37"/>
+    </row>
+    <row r="42" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="231"/>
+      <c r="L42" s="281"/>
+      <c r="M42" s="33">
+        <v>0</v>
+      </c>
+      <c r="N42" s="34">
+        <v>0</v>
+      </c>
+      <c r="O42" s="35"/>
+      <c r="P42" s="235">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="238">
+        <v>0</v>
+      </c>
+      <c r="S42" s="37"/>
+    </row>
+    <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="90"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="281"/>
+      <c r="M43" s="33">
+        <v>0</v>
+      </c>
+      <c r="N43" s="34">
+        <v>0</v>
+      </c>
+      <c r="O43" s="35"/>
+      <c r="P43" s="240">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="242">
+        <v>0</v>
+      </c>
+      <c r="S43" s="37"/>
+    </row>
+    <row r="44" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="231"/>
+      <c r="L44" s="281"/>
+      <c r="M44" s="92">
+        <v>0</v>
+      </c>
+      <c r="N44" s="93"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="13">
+        <v>0</v>
+      </c>
+      <c r="S44" s="37"/>
+    </row>
+    <row r="45" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="94"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="281"/>
+      <c r="M45" s="355">
+        <f>SUM(M5:M39)</f>
+        <v>1030358</v>
+      </c>
+      <c r="N45" s="340">
+        <f>SUM(N5:N39)</f>
+        <v>3027</v>
+      </c>
+      <c r="P45" s="98">
+        <f t="shared" si="0"/>
+        <v>1033385</v>
+      </c>
+      <c r="Q45" s="236">
+        <f t="shared" si="1"/>
+        <v>1033385</v>
+      </c>
+      <c r="R45" s="329">
+        <f>SUM(R5:R39)</f>
+        <v>54468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="281"/>
+      <c r="M46" s="356"/>
+      <c r="N46" s="341"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="23"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="287"/>
+      <c r="L47" s="216"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="106"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="236">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="23"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="25">
+        <v>0</v>
+      </c>
+      <c r="D48" s="115"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="107"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="288"/>
+      <c r="K48" s="289"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="120"/>
+      <c r="N48" s="34"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="122">
+        <f>SUM(C5:C48)</f>
+        <v>9041</v>
+      </c>
+      <c r="D49" s="123"/>
+      <c r="E49" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="125">
+        <f>SUM(F5:F48)</f>
+        <v>997801</v>
+      </c>
+      <c r="G49" s="123"/>
+      <c r="H49" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="127">
+        <f>SUM(I5:I48)</f>
+        <v>987</v>
+      </c>
+      <c r="J49" s="290"/>
+      <c r="K49" s="291" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="292">
+        <f>SUM(L5:L48)</f>
+        <v>9055</v>
+      </c>
+      <c r="M49" s="131"/>
+      <c r="N49" s="131"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="133"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="1"/>
+      <c r="H51" s="342" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="343"/>
+      <c r="J51" s="135"/>
+      <c r="K51" s="344">
+        <f>I49+L49</f>
+        <v>10042</v>
+      </c>
+      <c r="L51" s="345"/>
+      <c r="M51" s="346">
+        <f>N45+M45</f>
+        <v>1033385</v>
+      </c>
+      <c r="N51" s="347"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D52" s="339" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="339"/>
+      <c r="F52" s="136">
+        <f>F49-K51-C49</f>
+        <v>978718</v>
+      </c>
+      <c r="I52" s="137"/>
+      <c r="J52" s="138"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="9"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D53" s="357" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="357"/>
+      <c r="F53" s="131">
+        <v>0</v>
+      </c>
+      <c r="I53" s="358" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="359"/>
+      <c r="K53" s="372">
+        <f>F55+F56+F57</f>
+        <v>1336946.1200000001</v>
+      </c>
+      <c r="L53" s="373"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="9"/>
+    </row>
+    <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="139"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="141">
+        <v>0</v>
+      </c>
+      <c r="I54" s="142"/>
+      <c r="J54" s="143"/>
+      <c r="K54" s="108"/>
+      <c r="L54" s="294"/>
+      <c r="Q54" s="9"/>
+    </row>
+    <row r="55" spans="1:17" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="133" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="131">
+        <f>SUM(F52:F54)</f>
+        <v>978718</v>
+      </c>
+      <c r="H55" s="23"/>
+      <c r="I55" s="146" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="147"/>
+      <c r="K55" s="374">
+        <f>-C4</f>
+        <v>-359108.11</v>
+      </c>
+      <c r="L55" s="375"/>
+      <c r="Q55" s="9"/>
+    </row>
+    <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="133" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="150">
+        <v>45137</v>
+      </c>
+      <c r="D57" s="364" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="365"/>
+      <c r="F57" s="316">
+        <v>358228.12</v>
+      </c>
+      <c r="I57" s="381" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="382"/>
+      <c r="K57" s="383">
+        <f>K53+K55</f>
+        <v>977838.01000000013</v>
+      </c>
+      <c r="L57" s="383"/>
+    </row>
+    <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C58" s="152"/>
+      <c r="D58" s="153"/>
+      <c r="E58" s="154"/>
+      <c r="F58" s="155"/>
+      <c r="J58" s="295"/>
+    </row>
+    <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="157"/>
+      <c r="J59" s="296"/>
+      <c r="K59" s="297"/>
+      <c r="L59" s="297"/>
+    </row>
+    <row r="60" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="159"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="36"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="296"/>
+      <c r="K60" s="297"/>
+      <c r="L60" s="297"/>
+      <c r="M60" s="162"/>
+      <c r="N60" s="133"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="159"/>
+      <c r="C61" s="163"/>
+      <c r="E61" s="36"/>
+      <c r="M61" s="162"/>
+      <c r="N61" s="133"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B62" s="159"/>
+      <c r="C62" s="163"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="164"/>
+      <c r="L62" s="298"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B63" s="159"/>
+      <c r="C63" s="163"/>
+      <c r="E63" s="36"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B64" s="159"/>
+      <c r="C64" s="163"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="166"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E65" s="167"/>
+      <c r="F65" s="36"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E66" s="167"/>
+      <c r="F66" s="36"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E67" s="167"/>
+      <c r="F67" s="36"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E68" s="167"/>
+      <c r="F68" s="36"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E69" s="167"/>
+      <c r="F69" s="36"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E70" s="167"/>
+      <c r="F70" s="36"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E71" s="167"/>
+      <c r="F71" s="36"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E72" s="167"/>
+      <c r="F72" s="36"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E73" s="167"/>
+      <c r="F73" s="36"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E74" s="167"/>
+      <c r="F74" s="36"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E75" s="167"/>
+      <c r="F75" s="36"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E76" s="167"/>
+      <c r="F76" s="36"/>
+    </row>
+    <row r="77" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F77" s="166"/>
+    </row>
+    <row r="78" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F78" s="166"/>
+    </row>
+    <row r="79" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F79" s="166"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF00FF00"/>
+  </sheetPr>
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" style="206" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="207" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="209" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="133"/>
+    <col min="10" max="11" width="17.140625" style="133" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="133"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="211" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="168"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="171" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="172" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="173" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="174" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="175" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="174" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="176" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="320"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="180">
+        <f>C3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="320"/>
+      <c r="B4" s="321"/>
+      <c r="C4" s="322"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="183">
+        <f>C4-E4+F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="320"/>
+      <c r="B5" s="321"/>
+      <c r="C5" s="322"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="183">
+        <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="320"/>
+      <c r="B6" s="321"/>
+      <c r="C6" s="322"/>
+      <c r="D6" s="244"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="184"/>
+    </row>
+    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="320"/>
+      <c r="B7" s="321"/>
+      <c r="C7" s="322"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="320"/>
+      <c r="B8" s="321"/>
+      <c r="C8" s="322"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="220"/>
+      <c r="F8" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="320"/>
+      <c r="B9" s="321"/>
+      <c r="C9" s="322"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="320"/>
+      <c r="B10" s="321"/>
+      <c r="C10" s="322"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="320"/>
+      <c r="B11" s="321"/>
+      <c r="C11" s="322"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="320"/>
+      <c r="B12" s="321"/>
+      <c r="C12" s="322"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="184"/>
+    </row>
+    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="320"/>
+      <c r="B13" s="321"/>
+      <c r="C13" s="322"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="320"/>
+      <c r="B14" s="321"/>
+      <c r="C14" s="322"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="320"/>
+      <c r="B15" s="321"/>
+      <c r="C15" s="322"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="320"/>
+      <c r="B16" s="321"/>
+      <c r="C16" s="322"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="320"/>
+      <c r="B17" s="321"/>
+      <c r="C17" s="322"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="320"/>
+      <c r="B18" s="321"/>
+      <c r="C18" s="322"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="133" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="320"/>
+      <c r="B19" s="321"/>
+      <c r="C19" s="322"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="320"/>
+      <c r="B20" s="321"/>
+      <c r="C20" s="322"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="320"/>
+      <c r="B21" s="321"/>
+      <c r="C21" s="322"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="320"/>
+      <c r="B22" s="321"/>
+      <c r="C22" s="322"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="320"/>
+      <c r="B23" s="321"/>
+      <c r="C23" s="322"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="320"/>
+      <c r="B24" s="321"/>
+      <c r="C24" s="322"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="184"/>
+    </row>
+    <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="320"/>
+      <c r="B25" s="321"/>
+      <c r="C25" s="322"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="320"/>
+      <c r="B26" s="321"/>
+      <c r="C26" s="322"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="320"/>
+      <c r="B27" s="321"/>
+      <c r="C27" s="322"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="320"/>
+      <c r="B28" s="321"/>
+      <c r="C28" s="322"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="320"/>
+      <c r="B29" s="321"/>
+      <c r="C29" s="322"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="320"/>
+      <c r="B30" s="321"/>
+      <c r="C30" s="322"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="320"/>
+      <c r="B31" s="321"/>
+      <c r="C31" s="322"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="320"/>
+      <c r="B32" s="321"/>
+      <c r="C32" s="322"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="184"/>
+      <c r="J32" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="320"/>
+      <c r="B33" s="321"/>
+      <c r="C33" s="322"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="320"/>
+      <c r="B34" s="321"/>
+      <c r="C34" s="322"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="320"/>
+      <c r="B35" s="321"/>
+      <c r="C35" s="322"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="320"/>
+      <c r="B36" s="321"/>
+      <c r="C36" s="322"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="320"/>
+      <c r="B37" s="321"/>
+      <c r="C37" s="322"/>
+      <c r="D37" s="181"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="187">
+        <f>SUM(J29:J36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="320"/>
+      <c r="B38" s="321"/>
+      <c r="C38" s="322"/>
+      <c r="D38" s="181"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="320"/>
+      <c r="B39" s="321"/>
+      <c r="C39" s="322"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="320"/>
+      <c r="B40" s="321"/>
+      <c r="C40" s="322"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="320"/>
+      <c r="B41" s="321"/>
+      <c r="C41" s="322"/>
+      <c r="D41" s="181"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="320"/>
+      <c r="B42" s="321"/>
+      <c r="C42" s="322"/>
+      <c r="D42" s="185"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="320"/>
+      <c r="B43" s="321"/>
+      <c r="C43" s="322"/>
+      <c r="D43" s="192"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="320"/>
+      <c r="B44" s="321"/>
+      <c r="C44" s="322"/>
+      <c r="D44" s="192"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="320"/>
+      <c r="B45" s="321"/>
+      <c r="C45" s="322"/>
+      <c r="D45" s="192"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="320"/>
+      <c r="B46" s="321"/>
+      <c r="C46" s="322"/>
+      <c r="D46" s="192"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="325"/>
+      <c r="B47" s="321"/>
+      <c r="C47" s="322"/>
+      <c r="D47" s="192"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="325"/>
+      <c r="B48" s="321"/>
+      <c r="C48" s="322"/>
+      <c r="D48" s="192"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="325"/>
+      <c r="B49" s="321"/>
+      <c r="C49" s="322"/>
+      <c r="D49" s="192"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="325"/>
+      <c r="B50" s="321"/>
+      <c r="C50" s="322"/>
+      <c r="D50" s="192"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="325"/>
+      <c r="B51" s="321"/>
+      <c r="C51" s="322"/>
+      <c r="D51" s="192"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="324"/>
+      <c r="B52" s="248"/>
+      <c r="C52" s="149"/>
+      <c r="D52" s="192"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="324"/>
+      <c r="B53" s="248"/>
+      <c r="C53" s="149"/>
+      <c r="D53" s="192"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="324"/>
+      <c r="B54" s="248"/>
+      <c r="C54" s="149"/>
+      <c r="D54" s="192"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="246"/>
+      <c r="B55" s="248"/>
+      <c r="C55" s="149"/>
+      <c r="D55" s="192"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="246"/>
+      <c r="B56" s="248"/>
+      <c r="C56" s="149"/>
+      <c r="D56" s="192"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="193"/>
+      <c r="B57" s="194"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="192"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="193"/>
+      <c r="B58" s="194"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="192"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="193"/>
+      <c r="B59" s="194"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="192"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="193"/>
+      <c r="B60" s="194"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="192"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="193"/>
+      <c r="B61" s="194"/>
+      <c r="C61" s="100"/>
+      <c r="D61" s="192"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="195"/>
+      <c r="B62" s="196"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="197"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="195"/>
+      <c r="B63" s="196"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="197"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="195"/>
+      <c r="B64" s="196"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="197"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="195"/>
+      <c r="B65" s="196"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="197"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="195"/>
+      <c r="B66" s="196"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="197"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="195"/>
+      <c r="B67" s="196"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="197"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="193"/>
+      <c r="B68" s="198"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="192"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="183">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="193"/>
+      <c r="B69" s="198"/>
+      <c r="C69" s="100"/>
+      <c r="D69" s="192"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="183">
+        <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="193"/>
+      <c r="B70" s="198"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="192"/>
+      <c r="E70" s="100"/>
+      <c r="F70" s="183">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="193"/>
+      <c r="B71" s="198"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="192"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="183">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="193"/>
+      <c r="B72" s="198"/>
+      <c r="C72" s="100"/>
+      <c r="D72" s="192"/>
+      <c r="E72" s="100"/>
+      <c r="F72" s="183">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="193"/>
+      <c r="B73" s="198"/>
+      <c r="C73" s="100"/>
+      <c r="D73" s="192"/>
+      <c r="E73" s="100"/>
+      <c r="F73" s="183">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="193"/>
+      <c r="B74" s="198"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="192"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="183">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="193"/>
+      <c r="B75" s="198"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="192"/>
+      <c r="E75" s="100"/>
+      <c r="F75" s="183">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="193"/>
+      <c r="B76" s="198"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="192"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="183">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="193"/>
+      <c r="B77" s="198"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="192"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="183">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="199"/>
+      <c r="B78" s="200"/>
+      <c r="C78" s="36">
+        <v>0</v>
+      </c>
+      <c r="D78" s="197"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="183">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="201"/>
+      <c r="B79" s="202"/>
+      <c r="C79" s="317">
+        <f>SUM(C3:C78)</f>
+        <v>0</v>
+      </c>
+      <c r="D79" s="175"/>
+      <c r="E79" s="204">
+        <f>SUM(E3:E78)</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="205">
+        <f>F78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="197"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="197"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="208"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="208"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="208"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="208"/>
+      <c r="F85" s="133"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="208"/>
+      <c r="F86" s="133"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="208"/>
+      <c r="F87" s="133"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="208"/>
+      <c r="F88" s="133"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="208"/>
+      <c r="F89" s="133"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="208"/>
+      <c r="F90" s="133"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="208"/>
+      <c r="F91" s="133"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="208"/>
+      <c r="F92" s="133"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="208"/>
+      <c r="F93" s="133"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="208"/>
+      <c r="E94" s="133"/>
+      <c r="F94" s="133"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="208"/>
+      <c r="E95" s="133"/>
+      <c r="F95" s="133"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="208"/>
+      <c r="E96" s="133"/>
+      <c r="F96" s="133"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="208"/>
+      <c r="E97" s="133"/>
+      <c r="F97" s="133"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="208"/>
+      <c r="E98" s="133"/>
+      <c r="F98" s="133"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="208"/>
+      <c r="E99" s="133"/>
+      <c r="F99" s="133"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="208"/>
+      <c r="E100" s="133"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="208"/>
+      <c r="E101" s="133"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="208"/>
+      <c r="E102" s="133"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="208"/>
+      <c r="E103" s="133"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="208"/>
+      <c r="E104" s="133"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="208"/>
+      <c r="E105" s="133"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="208"/>
+      <c r="E106" s="133"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="208"/>
+      <c r="E107" s="133"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="208"/>
+      <c r="E108" s="133"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="208"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="208"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="208"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="208"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="208"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="208"/>
+    </row>
+    <row r="115" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C115" s="210"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15379,23 +19064,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="342"/>
-      <c r="C1" s="344" t="s">
+      <c r="B1" s="348"/>
+      <c r="C1" s="350" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="351"/>
+      <c r="H1" s="351"/>
+      <c r="I1" s="351"/>
+      <c r="J1" s="351"/>
+      <c r="K1" s="351"/>
+      <c r="L1" s="351"/>
+      <c r="M1" s="351"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="343"/>
+      <c r="B2" s="349"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -15405,21 +19090,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="346" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="347"/>
+      <c r="B3" s="352" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="353"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="348" t="s">
+      <c r="H3" s="354" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="348"/>
+      <c r="I3" s="354"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="351" t="s">
+      <c r="R3" s="331" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15434,14 +19119,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="353" t="s">
+      <c r="E4" s="333" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="354"/>
-      <c r="H4" s="355" t="s">
+      <c r="F4" s="334"/>
+      <c r="H4" s="335" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="356"/>
+      <c r="I4" s="336"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -15451,11 +19136,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="369" t="s">
+      <c r="P4" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="370"/>
-      <c r="R4" s="368"/>
+      <c r="Q4" s="371"/>
+      <c r="R4" s="369"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -17256,11 +20941,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="349">
+      <c r="M45" s="355">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="360">
+      <c r="N45" s="340">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -17290,8 +20975,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="350"/>
-      <c r="N46" s="361"/>
+      <c r="M46" s="356"/>
+      <c r="N46" s="341"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -17383,29 +21068,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="362" t="s">
+      <c r="H51" s="342" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="363"/>
+      <c r="I51" s="343"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="364">
+      <c r="K51" s="344">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="365"/>
-      <c r="M51" s="366">
+      <c r="L51" s="345"/>
+      <c r="M51" s="346">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="367"/>
+      <c r="N51" s="347"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="359" t="s">
+      <c r="D52" s="339" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="359"/>
+      <c r="E52" s="339"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -17416,22 +21101,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="330" t="s">
+      <c r="D53" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="330"/>
+      <c r="E53" s="357"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="331" t="s">
+      <c r="I53" s="358" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="332"/>
-      <c r="K53" s="333">
+      <c r="J53" s="359"/>
+      <c r="K53" s="360">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="334"/>
+      <c r="L53" s="361"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -17462,11 +21147,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="335">
+      <c r="K55" s="362">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="336"/>
+      <c r="L55" s="363"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -17483,22 +21168,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="337" t="s">
+      <c r="D57" s="364" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="338"/>
+      <c r="E57" s="365"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="339" t="s">
+      <c r="I57" s="366" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="340"/>
-      <c r="K57" s="341">
+      <c r="J57" s="367"/>
+      <c r="K57" s="368">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="341"/>
+      <c r="L57" s="368"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -17623,6 +21308,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17632,18 +21329,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19102,23 +22787,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="342"/>
-      <c r="C1" s="344" t="s">
+      <c r="B1" s="348"/>
+      <c r="C1" s="350" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="351"/>
+      <c r="H1" s="351"/>
+      <c r="I1" s="351"/>
+      <c r="J1" s="351"/>
+      <c r="K1" s="351"/>
+      <c r="L1" s="351"/>
+      <c r="M1" s="351"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="343"/>
+      <c r="B2" s="349"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -19128,21 +22813,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="346" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="347"/>
+      <c r="B3" s="352" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="353"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="348" t="s">
+      <c r="H3" s="354" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="348"/>
+      <c r="I3" s="354"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="351" t="s">
+      <c r="R3" s="331" t="s">
         <v>2</v>
       </c>
     </row>
@@ -19157,14 +22842,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="353" t="s">
+      <c r="E4" s="333" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="354"/>
-      <c r="H4" s="355" t="s">
+      <c r="F4" s="334"/>
+      <c r="H4" s="335" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="356"/>
+      <c r="I4" s="336"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -19174,11 +22859,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="369" t="s">
+      <c r="P4" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="370"/>
-      <c r="R4" s="368"/>
+      <c r="Q4" s="371"/>
+      <c r="R4" s="369"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -20971,11 +24656,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="349">
+      <c r="M45" s="355">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="360">
+      <c r="N45" s="340">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -21005,8 +24690,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="350"/>
-      <c r="N46" s="361"/>
+      <c r="M46" s="356"/>
+      <c r="N46" s="341"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -21098,29 +24783,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="362" t="s">
+      <c r="H51" s="342" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="363"/>
+      <c r="I51" s="343"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="364">
+      <c r="K51" s="344">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="365"/>
-      <c r="M51" s="366">
+      <c r="L51" s="345"/>
+      <c r="M51" s="346">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="367"/>
+      <c r="N51" s="347"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="359" t="s">
+      <c r="D52" s="339" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="359"/>
+      <c r="E52" s="339"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -21131,22 +24816,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="330" t="s">
+      <c r="D53" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="330"/>
+      <c r="E53" s="357"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="331" t="s">
+      <c r="I53" s="358" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="332"/>
-      <c r="K53" s="371">
+      <c r="J53" s="359"/>
+      <c r="K53" s="372">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
       </c>
-      <c r="L53" s="372"/>
+      <c r="L53" s="373"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -21177,11 +24862,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="373">
+      <c r="K55" s="374">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="374"/>
+      <c r="L55" s="375"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -21198,22 +24883,22 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="337" t="s">
+      <c r="D57" s="364" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="338"/>
+      <c r="E57" s="365"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
-      <c r="I57" s="375" t="s">
+      <c r="I57" s="376" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="376"/>
-      <c r="K57" s="377">
+      <c r="J57" s="377"/>
+      <c r="K57" s="378">
         <f>K53+K55</f>
         <v>-262575.91999999993</v>
       </c>
-      <c r="L57" s="377"/>
+      <c r="L57" s="378"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -21338,18 +25023,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -21359,6 +25032,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22760,23 +26445,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="342"/>
-      <c r="C1" s="344" t="s">
+      <c r="B1" s="348"/>
+      <c r="C1" s="350" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="351"/>
+      <c r="H1" s="351"/>
+      <c r="I1" s="351"/>
+      <c r="J1" s="351"/>
+      <c r="K1" s="351"/>
+      <c r="L1" s="351"/>
+      <c r="M1" s="351"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="343"/>
+      <c r="B2" s="349"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -22789,21 +26474,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="346" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="347"/>
+      <c r="B3" s="352" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="353"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="348" t="s">
+      <c r="H3" s="354" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="348"/>
+      <c r="I3" s="354"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="381" t="s">
+      <c r="R3" s="379" t="s">
         <v>2</v>
       </c>
     </row>
@@ -22818,14 +26503,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="353" t="s">
+      <c r="E4" s="333" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="354"/>
-      <c r="H4" s="355" t="s">
+      <c r="F4" s="334"/>
+      <c r="H4" s="335" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="356"/>
+      <c r="I4" s="336"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -22835,11 +26520,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="369" t="s">
+      <c r="P4" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="370"/>
-      <c r="R4" s="382"/>
+      <c r="Q4" s="371"/>
+      <c r="R4" s="380"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -24726,11 +28411,11 @@
       <c r="L45" s="312">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="349">
+      <c r="M45" s="355">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="360">
+      <c r="N45" s="340">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -24766,8 +28451,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="350"/>
-      <c r="N46" s="361"/>
+      <c r="M46" s="356"/>
+      <c r="N46" s="341"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -24859,29 +28544,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="362" t="s">
+      <c r="H51" s="342" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="363"/>
+      <c r="I51" s="343"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="364">
+      <c r="K51" s="344">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="365"/>
-      <c r="M51" s="366">
+      <c r="L51" s="345"/>
+      <c r="M51" s="346">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="367"/>
+      <c r="N51" s="347"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="359" t="s">
+      <c r="D52" s="339" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="359"/>
+      <c r="E52" s="339"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -24892,22 +28577,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="330" t="s">
+      <c r="D53" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="330"/>
+      <c r="E53" s="357"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="331" t="s">
+      <c r="I53" s="358" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="332"/>
-      <c r="K53" s="371">
+      <c r="J53" s="359"/>
+      <c r="K53" s="372">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
       </c>
-      <c r="L53" s="372"/>
+      <c r="L53" s="373"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -24938,11 +28623,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="373">
+      <c r="K55" s="374">
         <f>-C4</f>
         <v>-341192.34</v>
       </c>
-      <c r="L55" s="374"/>
+      <c r="L55" s="375"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -24959,22 +28644,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="337" t="s">
+      <c r="D57" s="364" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="338"/>
+      <c r="E57" s="365"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="378" t="s">
+      <c r="I57" s="381" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="379"/>
-      <c r="K57" s="380">
+      <c r="J57" s="382"/>
+      <c r="K57" s="383">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="380"/>
+      <c r="L57" s="383"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -25099,6 +28784,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25108,18 +28805,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26511,23 +30196,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="342"/>
-      <c r="C1" s="344" t="s">
+      <c r="B1" s="348"/>
+      <c r="C1" s="350" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="351"/>
+      <c r="H1" s="351"/>
+      <c r="I1" s="351"/>
+      <c r="J1" s="351"/>
+      <c r="K1" s="351"/>
+      <c r="L1" s="351"/>
+      <c r="M1" s="351"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="343"/>
+      <c r="B2" s="349"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -26540,21 +30225,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="346" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="347"/>
+      <c r="B3" s="352" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="353"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="348" t="s">
+      <c r="H3" s="354" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="348"/>
+      <c r="I3" s="354"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="383" t="s">
+      <c r="R3" s="384" t="s">
         <v>2</v>
       </c>
     </row>
@@ -26569,14 +30254,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="353" t="s">
+      <c r="E4" s="333" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="354"/>
-      <c r="H4" s="355" t="s">
+      <c r="F4" s="334"/>
+      <c r="H4" s="335" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="356"/>
+      <c r="I4" s="336"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -26586,11 +30271,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="369" t="s">
+      <c r="P4" s="370" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="370"/>
-      <c r="R4" s="384"/>
+      <c r="Q4" s="371"/>
+      <c r="R4" s="385"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -28463,11 +32148,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="349">
+      <c r="M45" s="355">
         <f>SUM(M5:M39)</f>
         <v>3007589</v>
       </c>
-      <c r="N45" s="360">
+      <c r="N45" s="340">
         <f>SUM(N5:N39)</f>
         <v>29752</v>
       </c>
@@ -28497,8 +32182,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="350"/>
-      <c r="N46" s="361"/>
+      <c r="M46" s="356"/>
+      <c r="N46" s="341"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -28590,29 +32275,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="362" t="s">
+      <c r="H51" s="342" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="363"/>
+      <c r="I51" s="343"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="364">
+      <c r="K51" s="344">
         <f>I49+L49</f>
         <v>84500.43</v>
       </c>
-      <c r="L51" s="365"/>
-      <c r="M51" s="366">
+      <c r="L51" s="345"/>
+      <c r="M51" s="346">
         <f>N45+M45</f>
         <v>3037341</v>
       </c>
-      <c r="N51" s="367"/>
+      <c r="N51" s="347"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="359" t="s">
+      <c r="D52" s="339" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="359"/>
+      <c r="E52" s="339"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2988109.57</v>
@@ -28623,22 +32308,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="330" t="s">
+      <c r="D53" s="357" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="330"/>
+      <c r="E53" s="357"/>
       <c r="F53" s="131">
         <v>-2955802.29</v>
       </c>
-      <c r="I53" s="331" t="s">
+      <c r="I53" s="358" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="332"/>
-      <c r="K53" s="371">
+      <c r="J53" s="359"/>
+      <c r="K53" s="372">
         <f>F55+F56+F57</f>
         <v>419364.9699999998</v>
       </c>
-      <c r="L53" s="372"/>
+      <c r="L53" s="373"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -28669,11 +32354,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="373">
+      <c r="K55" s="374">
         <f>-C4</f>
         <v>-394548.7</v>
       </c>
-      <c r="L55" s="374"/>
+      <c r="L55" s="375"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -28690,22 +32375,22 @@
       <c r="C57" s="150">
         <v>45081</v>
       </c>
-      <c r="D57" s="337" t="s">
+      <c r="D57" s="364" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="338"/>
+      <c r="E57" s="365"/>
       <c r="F57" s="316">
         <v>345633.69</v>
       </c>
-      <c r="I57" s="378" t="s">
+      <c r="I57" s="381" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="379"/>
-      <c r="K57" s="380">
+      <c r="J57" s="382"/>
+      <c r="K57" s="383">
         <f>K53+K55</f>
         <v>24816.269999999786</v>
       </c>
-      <c r="L57" s="380"/>
+      <c r="L57" s="383"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -28830,18 +32515,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28851,6 +32524,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  HERRADURA  Julio    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  HERRADURA  Julio    2023.xlsx
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="389">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1606,6 +1606,24 @@
   </si>
   <si>
     <t>NOMINA # 27</t>
+  </si>
+  <si>
+    <t>NOMINA # 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHORIZO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONGANIZA  </t>
+  </si>
+  <si>
+    <t>COMPRAS CENTRAL--chorizo</t>
+  </si>
+  <si>
+    <t>NOMINA # 29</t>
+  </si>
+  <si>
+    <t>DEBE $ 8.00</t>
   </si>
 </sst>
 </file>
@@ -3039,7 +3057,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="386">
+  <cellXfs count="387">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3683,6 +3701,72 @@
     <xf numFmtId="16" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3734,69 +3818,6 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3827,12 +3848,6 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3841,6 +3856,12 @@
     </xf>
     <xf numFmtId="166" fontId="16" fillId="9" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -7154,23 +7175,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="348"/>
-      <c r="C1" s="350" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="349"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7180,21 +7201,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="353"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="354" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="354"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="331" t="s">
+      <c r="R3" s="353" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7209,14 +7230,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="333" t="s">
+      <c r="E4" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="334"/>
-      <c r="H4" s="335" t="s">
+      <c r="F4" s="356"/>
+      <c r="H4" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="336"/>
+      <c r="I4" s="358"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7226,11 +7247,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="337" t="s">
+      <c r="P4" s="359" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="338"/>
-      <c r="R4" s="332"/>
+      <c r="Q4" s="360"/>
+      <c r="R4" s="354"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9035,11 +9056,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="355">
+      <c r="M49" s="351">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="340">
+      <c r="N49" s="362">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -9074,8 +9095,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="356"/>
-      <c r="N50" s="341"/>
+      <c r="M50" s="352"/>
+      <c r="N50" s="363"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -9167,29 +9188,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="342" t="s">
+      <c r="H55" s="364" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="343"/>
+      <c r="I55" s="365"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="344">
+      <c r="K55" s="366">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="345"/>
-      <c r="M55" s="346">
+      <c r="L55" s="367"/>
+      <c r="M55" s="368">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="347"/>
+      <c r="N55" s="369"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="339" t="s">
+      <c r="D56" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="339"/>
+      <c r="E56" s="361"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -9200,22 +9221,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="357" t="s">
+      <c r="D57" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="357"/>
+      <c r="E57" s="332"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="358" t="s">
+      <c r="I57" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="359"/>
-      <c r="K57" s="360">
+      <c r="J57" s="334"/>
+      <c r="K57" s="335">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="361"/>
+      <c r="L57" s="336"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -9246,11 +9267,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="362">
+      <c r="K59" s="337">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="363"/>
+      <c r="L59" s="338"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -9267,22 +9288,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="364" t="s">
+      <c r="D61" s="339" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="365"/>
+      <c r="E61" s="340"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="366" t="s">
+      <c r="I61" s="341" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="367"/>
-      <c r="K61" s="368">
+      <c r="J61" s="342"/>
+      <c r="K61" s="343">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="368"/>
+      <c r="L61" s="343"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -9407,18 +9428,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9428,6 +9437,18 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10857,23 +10878,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="348"/>
-      <c r="C1" s="350" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="349"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10886,21 +10907,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="353"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="354" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="354"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="384" t="s">
+      <c r="R3" s="385" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10915,14 +10936,14 @@
       <c r="D4" s="307">
         <v>45081</v>
       </c>
-      <c r="E4" s="333" t="s">
+      <c r="E4" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="334"/>
-      <c r="H4" s="335" t="s">
+      <c r="F4" s="356"/>
+      <c r="H4" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="336"/>
+      <c r="I4" s="358"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -10932,11 +10953,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="370" t="s">
+      <c r="P4" s="371" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="371"/>
-      <c r="R4" s="385"/>
+      <c r="Q4" s="372"/>
+      <c r="R4" s="386"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -12720,11 +12741,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="355">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
         <v>3170751</v>
       </c>
-      <c r="N45" s="340">
+      <c r="N45" s="362">
         <f>SUM(N5:N39)</f>
         <v>31751.230000000003</v>
       </c>
@@ -12754,8 +12775,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="356"/>
-      <c r="N46" s="341"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="363"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -12847,29 +12868,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="342" t="s">
+      <c r="H51" s="364" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="343"/>
+      <c r="I51" s="365"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="344">
+      <c r="K51" s="366">
         <f>I49+L49</f>
         <v>66093.360000000015</v>
       </c>
-      <c r="L51" s="345"/>
-      <c r="M51" s="346">
+      <c r="L51" s="367"/>
+      <c r="M51" s="368">
         <f>N45+M45</f>
         <v>3202502.23</v>
       </c>
-      <c r="N51" s="347"/>
+      <c r="N51" s="369"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="339" t="s">
+      <c r="D52" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="339"/>
+      <c r="E52" s="361"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>3132761.64</v>
@@ -12880,22 +12901,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="357" t="s">
+      <c r="D53" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="357"/>
+      <c r="E53" s="332"/>
       <c r="F53" s="131">
         <v>-3128572.23</v>
       </c>
-      <c r="I53" s="358" t="s">
+      <c r="I53" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="359"/>
-      <c r="K53" s="372">
+      <c r="J53" s="334"/>
+      <c r="K53" s="373">
         <f>F55+F56+F57</f>
         <v>417897.52000000014</v>
       </c>
-      <c r="L53" s="373"/>
+      <c r="L53" s="374"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -12926,11 +12947,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="374">
+      <c r="K55" s="375">
         <f>-C4</f>
         <v>-345633.69</v>
       </c>
-      <c r="L55" s="375"/>
+      <c r="L55" s="376"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -12947,22 +12968,22 @@
       <c r="C57" s="150">
         <v>45109</v>
       </c>
-      <c r="D57" s="364" t="s">
+      <c r="D57" s="339" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="365"/>
+      <c r="E57" s="340"/>
       <c r="F57" s="316">
         <v>359108.11</v>
       </c>
-      <c r="I57" s="381" t="s">
+      <c r="I57" s="380" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="382"/>
-      <c r="K57" s="383">
+      <c r="J57" s="381"/>
+      <c r="K57" s="382">
         <f>K53+K55</f>
         <v>72263.830000000133</v>
       </c>
-      <c r="L57" s="383"/>
+      <c r="L57" s="382"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -13087,6 +13108,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13096,18 +13129,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14492,8 +14513,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14518,23 +14539,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="348"/>
-      <c r="C1" s="350" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="349"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -14547,21 +14568,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="353"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="354" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="354"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="384" t="s">
+      <c r="R3" s="385" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14576,14 +14597,14 @@
       <c r="D4" s="307">
         <v>45109</v>
       </c>
-      <c r="E4" s="333" t="s">
+      <c r="E4" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="334"/>
-      <c r="H4" s="335" t="s">
+      <c r="F4" s="356"/>
+      <c r="H4" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="336"/>
+      <c r="I4" s="358"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -14593,11 +14614,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="370" t="s">
+      <c r="P4" s="371" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="371"/>
-      <c r="R4" s="385"/>
+      <c r="Q4" s="372"/>
+      <c r="R4" s="386"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -14985,35 +15006,42 @@
         <v>45118</v>
       </c>
       <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="42"/>
+        <v>3480</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>211</v>
+      </c>
       <c r="E13" s="27">
         <v>45118</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="28">
+        <v>136861</v>
+      </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30">
         <v>45118</v>
       </c>
-      <c r="I13" s="31"/>
+      <c r="I13" s="31">
+        <v>70</v>
+      </c>
       <c r="J13" s="258"/>
       <c r="K13" s="71"/>
       <c r="L13" s="259"/>
       <c r="M13" s="33">
-        <v>0</v>
+        <f>51000+81929</f>
+        <v>132929</v>
       </c>
       <c r="N13" s="34">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="O13" s="35"/>
       <c r="P13" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>136873</v>
       </c>
       <c r="Q13" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R13" s="238">
         <v>0</v>
@@ -15026,23 +15054,29 @@
         <v>45119</v>
       </c>
       <c r="C14" s="25">
-        <v>0</v>
-      </c>
-      <c r="D14" s="46"/>
+        <v>900</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>294</v>
+      </c>
       <c r="E14" s="27">
         <v>45119</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28">
+        <v>28904</v>
+      </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30">
         <v>45119</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="31">
+        <v>193</v>
+      </c>
       <c r="J14" s="258"/>
       <c r="K14" s="260"/>
       <c r="L14" s="259"/>
       <c r="M14" s="33">
-        <v>0</v>
+        <v>27811</v>
       </c>
       <c r="N14" s="34">
         <v>0</v>
@@ -15050,7 +15084,7 @@
       <c r="O14" s="35"/>
       <c r="P14" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28904</v>
       </c>
       <c r="Q14" s="236">
         <f t="shared" si="1"/>
@@ -15073,29 +15107,34 @@
       <c r="E15" s="27">
         <v>45120</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28">
+        <v>147109</v>
+      </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30">
         <v>45120</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="31">
+        <v>0</v>
+      </c>
       <c r="J15" s="258"/>
       <c r="K15" s="260"/>
       <c r="L15" s="259"/>
       <c r="M15" s="33">
-        <v>0</v>
+        <f>29000+116085</f>
+        <v>145085</v>
       </c>
       <c r="N15" s="34">
-        <v>0</v>
+        <v>2086</v>
       </c>
       <c r="O15" s="314"/>
       <c r="P15" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>147171</v>
       </c>
       <c r="Q15" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="R15" s="238">
         <v>0</v>
@@ -15108,35 +15147,42 @@
         <v>45121</v>
       </c>
       <c r="C16" s="25">
-        <v>0</v>
-      </c>
-      <c r="D16" s="52"/>
+        <v>11732</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>69</v>
+      </c>
       <c r="E16" s="27">
         <v>45121</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>177601</v>
+      </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30">
         <v>45121</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="31">
+        <v>158</v>
+      </c>
       <c r="J16" s="258"/>
       <c r="K16" s="260"/>
       <c r="L16" s="13"/>
       <c r="M16" s="33">
-        <v>0</v>
+        <f>57500+106095</f>
+        <v>163595</v>
       </c>
       <c r="N16" s="34">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="O16" s="35"/>
       <c r="P16" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>177665</v>
       </c>
       <c r="Q16" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="R16" s="238">
         <v>0</v>
@@ -15155,29 +15201,40 @@
       <c r="E17" s="27">
         <v>45122</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28">
+        <v>169447</v>
+      </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30">
         <v>45122</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="258"/>
-      <c r="K17" s="326"/>
-      <c r="L17" s="263"/>
+      <c r="I17" s="31">
+        <v>198</v>
+      </c>
+      <c r="J17" s="258">
+        <v>45122</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="L17" s="263">
+        <v>8733</v>
+      </c>
       <c r="M17" s="33">
-        <v>0</v>
+        <f>64500+95113</f>
+        <v>159613</v>
       </c>
       <c r="N17" s="34">
-        <v>0</v>
+        <v>931</v>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>169475</v>
       </c>
       <c r="Q17" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R17" s="238">
         <v>0</v>
@@ -15190,35 +15247,42 @@
         <v>45123</v>
       </c>
       <c r="C18" s="25">
-        <v>0</v>
-      </c>
-      <c r="D18" s="38"/>
+        <v>1980</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>384</v>
+      </c>
       <c r="E18" s="27">
         <v>45123</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28">
+        <v>144827</v>
+      </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30">
         <v>45123</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="31">
+        <v>15</v>
+      </c>
       <c r="J18" s="258"/>
       <c r="K18" s="265"/>
       <c r="L18" s="259"/>
       <c r="M18" s="33">
-        <v>0</v>
+        <f>128100+14367</f>
+        <v>142467</v>
       </c>
       <c r="N18" s="34">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>144838</v>
       </c>
       <c r="Q18" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R18" s="238">
         <v>0</v>
@@ -15237,17 +15301,22 @@
       <c r="E19" s="27">
         <v>45124</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28">
+        <v>174056</v>
+      </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30">
         <v>45124</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="31">
+        <v>234</v>
+      </c>
       <c r="J19" s="258"/>
       <c r="K19" s="266"/>
       <c r="L19" s="267"/>
       <c r="M19" s="33">
-        <v>0</v>
+        <f>35800+138022</f>
+        <v>173822</v>
       </c>
       <c r="N19" s="34">
         <v>0</v>
@@ -15255,7 +15324,7 @@
       <c r="O19" s="35"/>
       <c r="P19" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>174056</v>
       </c>
       <c r="Q19" s="236">
         <f t="shared" si="1"/>
@@ -15278,29 +15347,34 @@
       <c r="E20" s="27">
         <v>45125</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28">
+        <v>154400</v>
+      </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30">
         <v>45125</v>
       </c>
-      <c r="I20" s="31"/>
+      <c r="I20" s="31">
+        <v>47</v>
+      </c>
       <c r="J20" s="258"/>
       <c r="K20" s="262"/>
       <c r="L20" s="263"/>
       <c r="M20" s="33">
-        <v>0</v>
+        <f>82600+71397</f>
+        <v>153997</v>
       </c>
       <c r="N20" s="34">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="O20" s="35"/>
       <c r="P20" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>154411</v>
       </c>
       <c r="Q20" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R20" s="238">
         <v>0</v>
@@ -15319,17 +15393,22 @@
       <c r="E21" s="27">
         <v>45126</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28">
+        <v>86346</v>
+      </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30">
         <v>45126</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="31">
+        <v>159</v>
+      </c>
       <c r="J21" s="258"/>
       <c r="K21" s="268"/>
       <c r="L21" s="263"/>
       <c r="M21" s="33">
-        <v>0</v>
+        <f>72187+14000</f>
+        <v>86187</v>
       </c>
       <c r="N21" s="34">
         <v>0</v>
@@ -15337,7 +15416,7 @@
       <c r="O21" s="35"/>
       <c r="P21" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86346</v>
       </c>
       <c r="Q21" s="236">
         <f t="shared" si="1"/>
@@ -15354,35 +15433,42 @@
         <v>45127</v>
       </c>
       <c r="C22" s="25">
-        <v>0</v>
-      </c>
-      <c r="D22" s="46"/>
+        <v>3000</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>385</v>
+      </c>
       <c r="E22" s="27">
         <v>45127</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28">
+        <v>155372</v>
+      </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30">
         <v>45127</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="31">
+        <v>15</v>
+      </c>
       <c r="J22" s="258"/>
       <c r="K22" s="302"/>
       <c r="L22" s="269"/>
       <c r="M22" s="33">
-        <v>0</v>
+        <f>137720+14000</f>
+        <v>151720</v>
       </c>
       <c r="N22" s="34">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="O22" s="315"/>
       <c r="P22" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>155392</v>
       </c>
       <c r="Q22" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R22" s="238">
         <v>0</v>
@@ -15395,35 +15481,42 @@
         <v>45128</v>
       </c>
       <c r="C23" s="25">
-        <v>0</v>
-      </c>
-      <c r="D23" s="46"/>
+        <v>29665</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>386</v>
+      </c>
       <c r="E23" s="27">
         <v>45128</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28">
+        <v>152771</v>
+      </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30">
         <v>45128</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="31">
+        <v>160</v>
+      </c>
       <c r="J23" s="270"/>
       <c r="K23" s="271"/>
       <c r="L23" s="263"/>
       <c r="M23" s="33">
-        <v>0</v>
+        <f>11000+110343</f>
+        <v>121343</v>
       </c>
       <c r="N23" s="34">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="O23" s="35"/>
       <c r="P23" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>152818</v>
       </c>
       <c r="Q23" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="R23" s="238">
         <v>0</v>
@@ -15442,29 +15535,42 @@
       <c r="E24" s="27">
         <v>45129</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28">
+        <v>161197</v>
+      </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30">
         <v>45129</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="272"/>
-      <c r="K24" s="271"/>
-      <c r="L24" s="273"/>
+      <c r="I24" s="31">
+        <v>114</v>
+      </c>
+      <c r="J24" s="272">
+        <v>45129</v>
+      </c>
+      <c r="K24" s="271" t="s">
+        <v>387</v>
+      </c>
+      <c r="L24" s="273">
+        <v>9554</v>
+      </c>
       <c r="M24" s="33">
-        <v>0</v>
+        <f>104500+45910</f>
+        <v>150410</v>
       </c>
       <c r="N24" s="34">
-        <v>0</v>
-      </c>
-      <c r="O24" s="35"/>
+        <v>1145</v>
+      </c>
+      <c r="O24" s="331" t="s">
+        <v>388</v>
+      </c>
       <c r="P24" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>161223</v>
       </c>
       <c r="Q24" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R24" s="238">
         <v>0</v>
@@ -15483,29 +15589,34 @@
       <c r="E25" s="27">
         <v>45130</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28">
+        <v>137636</v>
+      </c>
       <c r="G25" s="29"/>
       <c r="H25" s="30">
         <v>45130</v>
       </c>
-      <c r="I25" s="31"/>
+      <c r="I25" s="31">
+        <v>5</v>
+      </c>
       <c r="J25" s="274"/>
       <c r="K25" s="275"/>
       <c r="L25" s="276"/>
       <c r="M25" s="33">
-        <v>0</v>
+        <f>123800+12948</f>
+        <v>136748</v>
       </c>
       <c r="N25" s="34">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="O25" s="35"/>
       <c r="P25" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>137663</v>
       </c>
       <c r="Q25" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R25" s="238">
         <v>0</v>
@@ -16200,21 +16311,21 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="355">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
-        <v>1030358</v>
-      </c>
-      <c r="N45" s="340">
+        <v>2776085</v>
+      </c>
+      <c r="N45" s="362">
         <f>SUM(N5:N39)</f>
-        <v>3027</v>
+        <v>13723</v>
       </c>
       <c r="P45" s="98">
         <f t="shared" si="0"/>
-        <v>1033385</v>
+        <v>2789808</v>
       </c>
       <c r="Q45" s="236">
         <f t="shared" si="1"/>
-        <v>1033385</v>
+        <v>2789808</v>
       </c>
       <c r="R45" s="329">
         <f>SUM(R5:R39)</f>
@@ -16234,8 +16345,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="356"/>
-      <c r="N46" s="341"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="363"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="236">
         <f t="shared" si="1"/>
@@ -16291,7 +16402,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>9041</v>
+        <v>59798</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -16299,7 +16410,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>997801</v>
+        <v>2824328</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -16307,7 +16418,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>987</v>
+        <v>2355</v>
       </c>
       <c r="J49" s="290"/>
       <c r="K49" s="291" t="s">
@@ -16315,7 +16426,7 @@
       </c>
       <c r="L49" s="292">
         <f>SUM(L5:L48)</f>
-        <v>9055</v>
+        <v>27342</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -16333,32 +16444,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="342" t="s">
+      <c r="H51" s="364" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="343"/>
+      <c r="I51" s="365"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="344">
+      <c r="K51" s="366">
         <f>I49+L49</f>
-        <v>10042</v>
-      </c>
-      <c r="L51" s="345"/>
-      <c r="M51" s="346">
+        <v>29697</v>
+      </c>
+      <c r="L51" s="367"/>
+      <c r="M51" s="368">
         <f>N45+M45</f>
-        <v>1033385</v>
-      </c>
-      <c r="N51" s="347"/>
+        <v>2789808</v>
+      </c>
+      <c r="N51" s="369"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="339" t="s">
+      <c r="D52" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="339"/>
+      <c r="E52" s="361"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>978718</v>
+        <v>2734833</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -16366,22 +16477,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="357" t="s">
+      <c r="D53" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="357"/>
+      <c r="E53" s="332"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="358" t="s">
+      <c r="I53" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="359"/>
-      <c r="K53" s="372">
+      <c r="J53" s="334"/>
+      <c r="K53" s="373">
         <f>F55+F56+F57</f>
-        <v>1336946.1200000001</v>
-      </c>
-      <c r="L53" s="373"/>
+        <v>3093061.12</v>
+      </c>
+      <c r="L53" s="374"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -16406,18 +16517,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>978718</v>
+        <v>2734833</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="374">
+      <c r="K55" s="375">
         <f>-C4</f>
         <v>-359108.11</v>
       </c>
-      <c r="L55" s="375"/>
+      <c r="L55" s="376"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -16435,22 +16546,22 @@
       <c r="C57" s="150">
         <v>45137</v>
       </c>
-      <c r="D57" s="364" t="s">
+      <c r="D57" s="339" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="365"/>
+      <c r="E57" s="340"/>
       <c r="F57" s="316">
         <v>358228.12</v>
       </c>
-      <c r="I57" s="381" t="s">
+      <c r="I57" s="380" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="382"/>
-      <c r="K57" s="383">
+      <c r="J57" s="381"/>
+      <c r="K57" s="382">
         <f>K53+K55</f>
-        <v>977838.01000000013</v>
-      </c>
-      <c r="L57" s="383"/>
+        <v>2733953.0100000002</v>
+      </c>
+      <c r="L57" s="382"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -16575,6 +16686,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="K53:L53"/>
@@ -16582,20 +16707,6 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19064,23 +19175,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="348"/>
-      <c r="C1" s="350" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="349"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -19090,21 +19201,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="353"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="354" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="354"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="331" t="s">
+      <c r="R3" s="353" t="s">
         <v>2</v>
       </c>
     </row>
@@ -19119,14 +19230,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="333" t="s">
+      <c r="E4" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="334"/>
-      <c r="H4" s="335" t="s">
+      <c r="F4" s="356"/>
+      <c r="H4" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="336"/>
+      <c r="I4" s="358"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -19136,11 +19247,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="370" t="s">
+      <c r="P4" s="371" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="371"/>
-      <c r="R4" s="369"/>
+      <c r="Q4" s="372"/>
+      <c r="R4" s="370"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -20941,11 +21052,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="355">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="340">
+      <c r="N45" s="362">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -20975,8 +21086,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="356"/>
-      <c r="N46" s="341"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="363"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -21068,29 +21179,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="342" t="s">
+      <c r="H51" s="364" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="343"/>
+      <c r="I51" s="365"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="344">
+      <c r="K51" s="366">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="345"/>
-      <c r="M51" s="346">
+      <c r="L51" s="367"/>
+      <c r="M51" s="368">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="347"/>
+      <c r="N51" s="369"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="339" t="s">
+      <c r="D52" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="339"/>
+      <c r="E52" s="361"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -21101,22 +21212,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="357" t="s">
+      <c r="D53" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="357"/>
+      <c r="E53" s="332"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="358" t="s">
+      <c r="I53" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="359"/>
-      <c r="K53" s="360">
+      <c r="J53" s="334"/>
+      <c r="K53" s="335">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="361"/>
+      <c r="L53" s="336"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -21147,11 +21258,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="362">
+      <c r="K55" s="337">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="363"/>
+      <c r="L55" s="338"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -21168,22 +21279,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="364" t="s">
+      <c r="D57" s="339" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="365"/>
+      <c r="E57" s="340"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="366" t="s">
+      <c r="I57" s="341" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="367"/>
-      <c r="K57" s="368">
+      <c r="J57" s="342"/>
+      <c r="K57" s="343">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="368"/>
+      <c r="L57" s="343"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -21308,18 +21419,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -21329,6 +21428,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22787,23 +22898,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="348"/>
-      <c r="C1" s="350" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="349"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -22813,21 +22924,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="353"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="354" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="354"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="331" t="s">
+      <c r="R3" s="353" t="s">
         <v>2</v>
       </c>
     </row>
@@ -22842,14 +22953,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="333" t="s">
+      <c r="E4" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="334"/>
-      <c r="H4" s="335" t="s">
+      <c r="F4" s="356"/>
+      <c r="H4" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="336"/>
+      <c r="I4" s="358"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -22859,11 +22970,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="370" t="s">
+      <c r="P4" s="371" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="371"/>
-      <c r="R4" s="369"/>
+      <c r="Q4" s="372"/>
+      <c r="R4" s="370"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -24656,11 +24767,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="355">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="340">
+      <c r="N45" s="362">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -24690,8 +24801,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="356"/>
-      <c r="N46" s="341"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="363"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -24783,29 +24894,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="342" t="s">
+      <c r="H51" s="364" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="343"/>
+      <c r="I51" s="365"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="344">
+      <c r="K51" s="366">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="345"/>
-      <c r="M51" s="346">
+      <c r="L51" s="367"/>
+      <c r="M51" s="368">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="347"/>
+      <c r="N51" s="369"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="339" t="s">
+      <c r="D52" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="339"/>
+      <c r="E52" s="361"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -24816,22 +24927,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="357" t="s">
+      <c r="D53" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="357"/>
+      <c r="E53" s="332"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="358" t="s">
+      <c r="I53" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="359"/>
-      <c r="K53" s="372">
+      <c r="J53" s="334"/>
+      <c r="K53" s="373">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
       </c>
-      <c r="L53" s="373"/>
+      <c r="L53" s="374"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -24862,11 +24973,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="374">
+      <c r="K55" s="375">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="375"/>
+      <c r="L55" s="376"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -24883,22 +24994,22 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="364" t="s">
+      <c r="D57" s="339" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="365"/>
+      <c r="E57" s="340"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
-      <c r="I57" s="376" t="s">
+      <c r="I57" s="377" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="377"/>
-      <c r="K57" s="378">
+      <c r="J57" s="378"/>
+      <c r="K57" s="379">
         <f>K53+K55</f>
         <v>-262575.91999999993</v>
       </c>
-      <c r="L57" s="378"/>
+      <c r="L57" s="379"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -25023,6 +25134,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25032,18 +25155,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26445,23 +26556,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="348"/>
-      <c r="C1" s="350" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="349"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -26474,21 +26585,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="353"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="354" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="354"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="379" t="s">
+      <c r="R3" s="383" t="s">
         <v>2</v>
       </c>
     </row>
@@ -26503,14 +26614,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="333" t="s">
+      <c r="E4" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="334"/>
-      <c r="H4" s="335" t="s">
+      <c r="F4" s="356"/>
+      <c r="H4" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="336"/>
+      <c r="I4" s="358"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -26520,11 +26631,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="370" t="s">
+      <c r="P4" s="371" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="371"/>
-      <c r="R4" s="380"/>
+      <c r="Q4" s="372"/>
+      <c r="R4" s="384"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -28411,11 +28522,11 @@
       <c r="L45" s="312">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="355">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="340">
+      <c r="N45" s="362">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -28451,8 +28562,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="356"/>
-      <c r="N46" s="341"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="363"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -28544,29 +28655,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="342" t="s">
+      <c r="H51" s="364" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="343"/>
+      <c r="I51" s="365"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="344">
+      <c r="K51" s="366">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="345"/>
-      <c r="M51" s="346">
+      <c r="L51" s="367"/>
+      <c r="M51" s="368">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="347"/>
+      <c r="N51" s="369"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="339" t="s">
+      <c r="D52" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="339"/>
+      <c r="E52" s="361"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -28577,22 +28688,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="357" t="s">
+      <c r="D53" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="357"/>
+      <c r="E53" s="332"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="358" t="s">
+      <c r="I53" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="359"/>
-      <c r="K53" s="372">
+      <c r="J53" s="334"/>
+      <c r="K53" s="373">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
       </c>
-      <c r="L53" s="373"/>
+      <c r="L53" s="374"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -28623,11 +28734,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="374">
+      <c r="K55" s="375">
         <f>-C4</f>
         <v>-341192.34</v>
       </c>
-      <c r="L55" s="375"/>
+      <c r="L55" s="376"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -28644,22 +28755,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="364" t="s">
+      <c r="D57" s="339" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="365"/>
+      <c r="E57" s="340"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="381" t="s">
+      <c r="I57" s="380" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="382"/>
-      <c r="K57" s="383">
+      <c r="J57" s="381"/>
+      <c r="K57" s="382">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="383"/>
+      <c r="L57" s="382"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -28784,18 +28895,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28805,6 +28904,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30196,23 +30307,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="348"/>
-      <c r="C1" s="350" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
-      <c r="H1" s="351"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="351"/>
-      <c r="K1" s="351"/>
-      <c r="L1" s="351"/>
-      <c r="M1" s="351"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="349"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -30225,21 +30336,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="352" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="353"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="354" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="354"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="384" t="s">
+      <c r="R3" s="385" t="s">
         <v>2</v>
       </c>
     </row>
@@ -30254,14 +30365,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="333" t="s">
+      <c r="E4" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="334"/>
-      <c r="H4" s="335" t="s">
+      <c r="F4" s="356"/>
+      <c r="H4" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="336"/>
+      <c r="I4" s="358"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -30271,11 +30382,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="370" t="s">
+      <c r="P4" s="371" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="371"/>
-      <c r="R4" s="385"/>
+      <c r="Q4" s="372"/>
+      <c r="R4" s="386"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -32148,11 +32259,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="355">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
         <v>3007589</v>
       </c>
-      <c r="N45" s="340">
+      <c r="N45" s="362">
         <f>SUM(N5:N39)</f>
         <v>29752</v>
       </c>
@@ -32182,8 +32293,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="356"/>
-      <c r="N46" s="341"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="363"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -32275,29 +32386,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="342" t="s">
+      <c r="H51" s="364" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="343"/>
+      <c r="I51" s="365"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="344">
+      <c r="K51" s="366">
         <f>I49+L49</f>
         <v>84500.43</v>
       </c>
-      <c r="L51" s="345"/>
-      <c r="M51" s="346">
+      <c r="L51" s="367"/>
+      <c r="M51" s="368">
         <f>N45+M45</f>
         <v>3037341</v>
       </c>
-      <c r="N51" s="347"/>
+      <c r="N51" s="369"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="339" t="s">
+      <c r="D52" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="339"/>
+      <c r="E52" s="361"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2988109.57</v>
@@ -32308,22 +32419,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="357" t="s">
+      <c r="D53" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="357"/>
+      <c r="E53" s="332"/>
       <c r="F53" s="131">
         <v>-2955802.29</v>
       </c>
-      <c r="I53" s="358" t="s">
+      <c r="I53" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="359"/>
-      <c r="K53" s="372">
+      <c r="J53" s="334"/>
+      <c r="K53" s="373">
         <f>F55+F56+F57</f>
         <v>419364.9699999998</v>
       </c>
-      <c r="L53" s="373"/>
+      <c r="L53" s="374"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -32354,11 +32465,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="374">
+      <c r="K55" s="375">
         <f>-C4</f>
         <v>-394548.7</v>
       </c>
-      <c r="L55" s="375"/>
+      <c r="L55" s="376"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -32375,22 +32486,22 @@
       <c r="C57" s="150">
         <v>45081</v>
       </c>
-      <c r="D57" s="364" t="s">
+      <c r="D57" s="339" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="365"/>
+      <c r="E57" s="340"/>
       <c r="F57" s="316">
         <v>345633.69</v>
       </c>
-      <c r="I57" s="381" t="s">
+      <c r="I57" s="380" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="382"/>
-      <c r="K57" s="383">
+      <c r="J57" s="381"/>
+      <c r="K57" s="382">
         <f>K53+K55</f>
         <v>24816.269999999786</v>
       </c>
-      <c r="L57" s="383"/>
+      <c r="L57" s="382"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -32515,6 +32626,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -32524,18 +32647,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  HERRADURA  Julio    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  HERRADURA  Julio    2023.xlsx
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="390">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1624,6 +1624,9 @@
   </si>
   <si>
     <t>DEBE $ 8.00</t>
+  </si>
+  <si>
+    <t>NOMINA # 30</t>
   </si>
 </sst>
 </file>
@@ -3704,69 +3707,6 @@
     <xf numFmtId="16" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3818,6 +3758,69 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3848,6 +3851,12 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3856,12 +3865,6 @@
     </xf>
     <xf numFmtId="166" fontId="16" fillId="9" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -7175,23 +7178,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="351" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="350"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7201,21 +7204,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="354"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="355"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="353" t="s">
+      <c r="R3" s="332" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7230,14 +7233,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="334" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="356"/>
-      <c r="H4" s="357" t="s">
+      <c r="F4" s="335"/>
+      <c r="H4" s="336" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="358"/>
+      <c r="I4" s="337"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7247,11 +7250,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="359" t="s">
+      <c r="P4" s="338" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="360"/>
-      <c r="R4" s="354"/>
+      <c r="Q4" s="339"/>
+      <c r="R4" s="333"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9056,11 +9059,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="351">
+      <c r="M49" s="356">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="362">
+      <c r="N49" s="341">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -9095,8 +9098,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="352"/>
-      <c r="N50" s="363"/>
+      <c r="M50" s="357"/>
+      <c r="N50" s="342"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -9188,29 +9191,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="364" t="s">
+      <c r="H55" s="343" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="365"/>
+      <c r="I55" s="344"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="366">
+      <c r="K55" s="345">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="367"/>
-      <c r="M55" s="368">
+      <c r="L55" s="346"/>
+      <c r="M55" s="347">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="369"/>
+      <c r="N55" s="348"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="361" t="s">
+      <c r="D56" s="340" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="361"/>
+      <c r="E56" s="340"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -9221,22 +9224,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="332" t="s">
+      <c r="D57" s="358" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="332"/>
+      <c r="E57" s="358"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="333" t="s">
+      <c r="I57" s="359" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="334"/>
-      <c r="K57" s="335">
+      <c r="J57" s="360"/>
+      <c r="K57" s="361">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="336"/>
+      <c r="L57" s="362"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -9267,11 +9270,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="337">
+      <c r="K59" s="363">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="338"/>
+      <c r="L59" s="364"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -9288,22 +9291,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="339" t="s">
+      <c r="D61" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="340"/>
+      <c r="E61" s="366"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="341" t="s">
+      <c r="I61" s="367" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="342"/>
-      <c r="K61" s="343">
+      <c r="J61" s="368"/>
+      <c r="K61" s="369">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="343"/>
+      <c r="L61" s="369"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -9428,6 +9431,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9437,18 +9452,6 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10878,23 +10881,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="351" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="350"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10907,17 +10910,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="354"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="355"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -10936,14 +10939,14 @@
       <c r="D4" s="307">
         <v>45081</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="334" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="356"/>
-      <c r="H4" s="357" t="s">
+      <c r="F4" s="335"/>
+      <c r="H4" s="336" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="358"/>
+      <c r="I4" s="337"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -12741,11 +12744,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="351">
+      <c r="M45" s="356">
         <f>SUM(M5:M39)</f>
         <v>3170751</v>
       </c>
-      <c r="N45" s="362">
+      <c r="N45" s="341">
         <f>SUM(N5:N39)</f>
         <v>31751.230000000003</v>
       </c>
@@ -12775,8 +12778,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="352"/>
-      <c r="N46" s="363"/>
+      <c r="M46" s="357"/>
+      <c r="N46" s="342"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -12868,29 +12871,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="364" t="s">
+      <c r="H51" s="343" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="365"/>
+      <c r="I51" s="344"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="366">
+      <c r="K51" s="345">
         <f>I49+L49</f>
         <v>66093.360000000015</v>
       </c>
-      <c r="L51" s="367"/>
-      <c r="M51" s="368">
+      <c r="L51" s="346"/>
+      <c r="M51" s="347">
         <f>N45+M45</f>
         <v>3202502.23</v>
       </c>
-      <c r="N51" s="369"/>
+      <c r="N51" s="348"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="361" t="s">
+      <c r="D52" s="340" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="361"/>
+      <c r="E52" s="340"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>3132761.64</v>
@@ -12901,17 +12904,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="332" t="s">
+      <c r="D53" s="358" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="332"/>
+      <c r="E53" s="358"/>
       <c r="F53" s="131">
         <v>-3128572.23</v>
       </c>
-      <c r="I53" s="333" t="s">
+      <c r="I53" s="359" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="334"/>
+      <c r="J53" s="360"/>
       <c r="K53" s="373">
         <f>F55+F56+F57</f>
         <v>417897.52000000014</v>
@@ -12968,22 +12971,22 @@
       <c r="C57" s="150">
         <v>45109</v>
       </c>
-      <c r="D57" s="339" t="s">
+      <c r="D57" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="340"/>
+      <c r="E57" s="366"/>
       <c r="F57" s="316">
         <v>359108.11</v>
       </c>
-      <c r="I57" s="380" t="s">
+      <c r="I57" s="382" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="381"/>
-      <c r="K57" s="382">
+      <c r="J57" s="383"/>
+      <c r="K57" s="384">
         <f>K53+K55</f>
         <v>72263.830000000133</v>
       </c>
-      <c r="L57" s="382"/>
+      <c r="L57" s="384"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -13108,18 +13111,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13129,6 +13120,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14513,8 +14516,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14539,23 +14542,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="351" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="350"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -14568,17 +14571,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="354"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="355"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -14597,14 +14600,14 @@
       <c r="D4" s="307">
         <v>45109</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="334" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="356"/>
-      <c r="H4" s="357" t="s">
+      <c r="F4" s="335"/>
+      <c r="H4" s="336" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="358"/>
+      <c r="I4" s="337"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -15289,7 +15292,7 @@
       </c>
       <c r="S18" s="37"/>
     </row>
-    <row r="19" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23"/>
       <c r="B19" s="24">
         <v>45124</v>
@@ -15629,23 +15632,30 @@
         <v>45131</v>
       </c>
       <c r="C26" s="25">
-        <v>0</v>
-      </c>
-      <c r="D26" s="38"/>
+        <v>3000</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="E26" s="27">
         <v>45131</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28">
+        <v>183666</v>
+      </c>
       <c r="G26" s="29"/>
       <c r="H26" s="30">
         <v>45131</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="31">
+        <v>188</v>
+      </c>
       <c r="J26" s="258"/>
       <c r="K26" s="271"/>
       <c r="L26" s="263"/>
       <c r="M26" s="33">
-        <v>0</v>
+        <f>59800+120678</f>
+        <v>180478</v>
       </c>
       <c r="N26" s="34">
         <v>0</v>
@@ -15653,7 +15663,7 @@
       <c r="O26" s="35"/>
       <c r="P26" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>183666</v>
       </c>
       <c r="Q26" s="236">
         <f t="shared" si="1"/>
@@ -15676,29 +15686,34 @@
       <c r="E27" s="27">
         <v>45132</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="28">
+        <v>130272</v>
+      </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30">
         <v>45132</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="31">
+        <v>57</v>
+      </c>
       <c r="J27" s="277"/>
       <c r="K27" s="275"/>
       <c r="L27" s="276"/>
       <c r="M27" s="33">
-        <v>0</v>
+        <f>26500+103430</f>
+        <v>129930</v>
       </c>
       <c r="N27" s="34">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="O27" s="35"/>
       <c r="P27" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>130281</v>
       </c>
       <c r="Q27" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R27" s="238">
         <v>0</v>
@@ -15711,35 +15726,42 @@
         <v>45133</v>
       </c>
       <c r="C28" s="25">
-        <v>0</v>
-      </c>
-      <c r="D28" s="42"/>
+        <v>3150</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>67</v>
+      </c>
       <c r="E28" s="27">
         <v>45133</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28">
+        <v>74401</v>
+      </c>
       <c r="G28" s="29"/>
       <c r="H28" s="30">
         <v>45133</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="31">
+        <v>231</v>
+      </c>
       <c r="J28" s="278"/>
       <c r="K28" s="71"/>
       <c r="L28" s="276"/>
       <c r="M28" s="33">
-        <v>0</v>
+        <f>33500+31906</f>
+        <v>65406</v>
       </c>
       <c r="N28" s="34">
-        <v>0</v>
+        <v>5869</v>
       </c>
       <c r="O28" s="35"/>
       <c r="P28" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>74656</v>
       </c>
       <c r="Q28" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="R28" s="238">
         <v>0</v>
@@ -15758,29 +15780,36 @@
       <c r="E29" s="27">
         <v>45134</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="28">
+        <v>125557</v>
+      </c>
       <c r="G29" s="29"/>
       <c r="H29" s="30">
         <v>45134</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="31">
+        <v>137</v>
+      </c>
       <c r="J29" s="277"/>
-      <c r="K29" s="279"/>
+      <c r="K29" s="279" t="s">
+        <v>9</v>
+      </c>
       <c r="L29" s="276"/>
       <c r="M29" s="33">
-        <v>0</v>
+        <f>51500+72403</f>
+        <v>123903</v>
       </c>
       <c r="N29" s="34">
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c r="O29" s="35"/>
       <c r="P29" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>125603</v>
       </c>
       <c r="Q29" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="R29" s="238">
         <v>0</v>
@@ -15794,23 +15823,30 @@
         <v>45135</v>
       </c>
       <c r="C30" s="25">
-        <v>0</v>
-      </c>
-      <c r="D30" s="72"/>
+        <v>17504</v>
+      </c>
+      <c r="D30" s="72" t="s">
+        <v>267</v>
+      </c>
       <c r="E30" s="27">
         <v>45135</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="28">
+        <v>168079</v>
+      </c>
       <c r="G30" s="29"/>
       <c r="H30" s="30">
         <v>45135</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="31">
+        <v>155</v>
+      </c>
       <c r="J30" s="86"/>
       <c r="K30" s="280"/>
       <c r="L30" s="281"/>
       <c r="M30" s="33">
-        <v>0</v>
+        <f>35500+114920</f>
+        <v>150420</v>
       </c>
       <c r="N30" s="34">
         <v>0</v>
@@ -15818,7 +15854,7 @@
       <c r="O30" s="35"/>
       <c r="P30" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>168079</v>
       </c>
       <c r="Q30" s="236">
         <f t="shared" si="1"/>
@@ -15841,29 +15877,40 @@
       <c r="E31" s="27">
         <v>45136</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28">
+        <v>165591</v>
+      </c>
       <c r="G31" s="29"/>
       <c r="H31" s="30">
         <v>45136</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="278"/>
-      <c r="K31" s="275"/>
-      <c r="L31" s="276"/>
+      <c r="I31" s="31">
+        <v>55</v>
+      </c>
+      <c r="J31" s="278">
+        <v>45136</v>
+      </c>
+      <c r="K31" s="275" t="s">
+        <v>389</v>
+      </c>
+      <c r="L31" s="276">
+        <v>9054</v>
+      </c>
       <c r="M31" s="33">
-        <v>0</v>
+        <f>61000+94586</f>
+        <v>155586</v>
       </c>
       <c r="N31" s="34">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="O31" s="35"/>
       <c r="P31" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>165619</v>
       </c>
       <c r="Q31" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="R31" s="238">
         <v>0</v>
@@ -16311,21 +16358,21 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="351">
+      <c r="M45" s="356">
         <f>SUM(M5:M39)</f>
-        <v>2776085</v>
-      </c>
-      <c r="N45" s="362">
+        <v>3581808</v>
+      </c>
+      <c r="N45" s="341">
         <f>SUM(N5:N39)</f>
-        <v>13723</v>
+        <v>22373</v>
       </c>
       <c r="P45" s="98">
         <f t="shared" si="0"/>
-        <v>2789808</v>
+        <v>3604181</v>
       </c>
       <c r="Q45" s="236">
-        <f t="shared" si="1"/>
-        <v>2789808</v>
+        <f>SUM(Q5:Q44)</f>
+        <v>713</v>
       </c>
       <c r="R45" s="329">
         <f>SUM(R5:R39)</f>
@@ -16345,8 +16392,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="352"/>
-      <c r="N46" s="363"/>
+      <c r="M46" s="357"/>
+      <c r="N46" s="342"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="236">
         <f t="shared" si="1"/>
@@ -16402,7 +16449,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>59798</v>
+        <v>83452</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -16410,7 +16457,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>2824328</v>
+        <v>3671894</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -16418,7 +16465,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>2355</v>
+        <v>3178</v>
       </c>
       <c r="J49" s="290"/>
       <c r="K49" s="291" t="s">
@@ -16426,7 +16473,7 @@
       </c>
       <c r="L49" s="292">
         <f>SUM(L5:L48)</f>
-        <v>27342</v>
+        <v>36396</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -16444,32 +16491,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="364" t="s">
+      <c r="H51" s="343" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="365"/>
+      <c r="I51" s="344"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="366">
+      <c r="K51" s="345">
         <f>I49+L49</f>
-        <v>29697</v>
-      </c>
-      <c r="L51" s="367"/>
-      <c r="M51" s="368">
+        <v>39574</v>
+      </c>
+      <c r="L51" s="346"/>
+      <c r="M51" s="347">
         <f>N45+M45</f>
-        <v>2789808</v>
-      </c>
-      <c r="N51" s="369"/>
+        <v>3604181</v>
+      </c>
+      <c r="N51" s="348"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="361" t="s">
+      <c r="D52" s="340" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="361"/>
+      <c r="E52" s="340"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>2734833</v>
+        <v>3548868</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -16477,20 +16524,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="332" t="s">
+      <c r="D53" s="358" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="332"/>
+      <c r="E53" s="358"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="333" t="s">
+      <c r="I53" s="359" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="334"/>
+      <c r="J53" s="360"/>
       <c r="K53" s="373">
         <f>F55+F56+F57</f>
-        <v>3093061.12</v>
+        <v>3907096.12</v>
       </c>
       <c r="L53" s="374"/>
       <c r="P53" s="36"/>
@@ -16517,7 +16564,7 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>2734833</v>
+        <v>3548868</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
@@ -16546,22 +16593,22 @@
       <c r="C57" s="150">
         <v>45137</v>
       </c>
-      <c r="D57" s="339" t="s">
+      <c r="D57" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="340"/>
+      <c r="E57" s="366"/>
       <c r="F57" s="316">
         <v>358228.12</v>
       </c>
-      <c r="I57" s="380" t="s">
+      <c r="I57" s="382" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="381"/>
-      <c r="K57" s="382">
+      <c r="J57" s="383"/>
+      <c r="K57" s="384">
         <f>K53+K55</f>
-        <v>2733953.0100000002</v>
-      </c>
-      <c r="L57" s="382"/>
+        <v>3547988.0100000002</v>
+      </c>
+      <c r="L57" s="384"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -16686,6 +16733,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16695,18 +16754,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19175,23 +19222,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="351" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="350"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -19201,21 +19248,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="354"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="355"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="353" t="s">
+      <c r="R3" s="332" t="s">
         <v>2</v>
       </c>
     </row>
@@ -19230,14 +19277,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="334" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="356"/>
-      <c r="H4" s="357" t="s">
+      <c r="F4" s="335"/>
+      <c r="H4" s="336" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="358"/>
+      <c r="I4" s="337"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -21052,11 +21099,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="351">
+      <c r="M45" s="356">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="362">
+      <c r="N45" s="341">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -21086,8 +21133,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="352"/>
-      <c r="N46" s="363"/>
+      <c r="M46" s="357"/>
+      <c r="N46" s="342"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -21179,29 +21226,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="364" t="s">
+      <c r="H51" s="343" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="365"/>
+      <c r="I51" s="344"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="366">
+      <c r="K51" s="345">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="367"/>
-      <c r="M51" s="368">
+      <c r="L51" s="346"/>
+      <c r="M51" s="347">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="369"/>
+      <c r="N51" s="348"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="361" t="s">
+      <c r="D52" s="340" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="361"/>
+      <c r="E52" s="340"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -21212,22 +21259,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="332" t="s">
+      <c r="D53" s="358" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="332"/>
+      <c r="E53" s="358"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="333" t="s">
+      <c r="I53" s="359" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="334"/>
-      <c r="K53" s="335">
+      <c r="J53" s="360"/>
+      <c r="K53" s="361">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="336"/>
+      <c r="L53" s="362"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -21258,11 +21305,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="337">
+      <c r="K55" s="363">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="338"/>
+      <c r="L55" s="364"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -21279,22 +21326,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="339" t="s">
+      <c r="D57" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="340"/>
+      <c r="E57" s="366"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="341" t="s">
+      <c r="I57" s="367" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="342"/>
-      <c r="K57" s="343">
+      <c r="J57" s="368"/>
+      <c r="K57" s="369">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="343"/>
+      <c r="L57" s="369"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -21419,6 +21466,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -21428,18 +21487,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22898,23 +22945,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="351" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="350"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -22924,21 +22971,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="354"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="355"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="353" t="s">
+      <c r="R3" s="332" t="s">
         <v>2</v>
       </c>
     </row>
@@ -22953,14 +23000,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="334" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="356"/>
-      <c r="H4" s="357" t="s">
+      <c r="F4" s="335"/>
+      <c r="H4" s="336" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="358"/>
+      <c r="I4" s="337"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -24767,11 +24814,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="351">
+      <c r="M45" s="356">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="362">
+      <c r="N45" s="341">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -24801,8 +24848,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="352"/>
-      <c r="N46" s="363"/>
+      <c r="M46" s="357"/>
+      <c r="N46" s="342"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -24894,29 +24941,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="364" t="s">
+      <c r="H51" s="343" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="365"/>
+      <c r="I51" s="344"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="366">
+      <c r="K51" s="345">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="367"/>
-      <c r="M51" s="368">
+      <c r="L51" s="346"/>
+      <c r="M51" s="347">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="369"/>
+      <c r="N51" s="348"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="361" t="s">
+      <c r="D52" s="340" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="361"/>
+      <c r="E52" s="340"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -24927,17 +24974,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="332" t="s">
+      <c r="D53" s="358" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="332"/>
+      <c r="E53" s="358"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="333" t="s">
+      <c r="I53" s="359" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="334"/>
+      <c r="J53" s="360"/>
       <c r="K53" s="373">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
@@ -24994,10 +25041,10 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="339" t="s">
+      <c r="D57" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="340"/>
+      <c r="E57" s="366"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
@@ -25134,18 +25181,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25155,6 +25190,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26556,23 +26603,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="351" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="350"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -26585,21 +26632,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="354"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="355"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="383" t="s">
+      <c r="R3" s="380" t="s">
         <v>2</v>
       </c>
     </row>
@@ -26614,14 +26661,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="334" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="356"/>
-      <c r="H4" s="357" t="s">
+      <c r="F4" s="335"/>
+      <c r="H4" s="336" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="358"/>
+      <c r="I4" s="337"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -26635,7 +26682,7 @@
         <v>8</v>
       </c>
       <c r="Q4" s="372"/>
-      <c r="R4" s="384"/>
+      <c r="R4" s="381"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -28522,11 +28569,11 @@
       <c r="L45" s="312">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="351">
+      <c r="M45" s="356">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="362">
+      <c r="N45" s="341">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -28562,8 +28609,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="352"/>
-      <c r="N46" s="363"/>
+      <c r="M46" s="357"/>
+      <c r="N46" s="342"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -28655,29 +28702,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="364" t="s">
+      <c r="H51" s="343" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="365"/>
+      <c r="I51" s="344"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="366">
+      <c r="K51" s="345">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="367"/>
-      <c r="M51" s="368">
+      <c r="L51" s="346"/>
+      <c r="M51" s="347">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="369"/>
+      <c r="N51" s="348"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="361" t="s">
+      <c r="D52" s="340" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="361"/>
+      <c r="E52" s="340"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -28688,17 +28735,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="332" t="s">
+      <c r="D53" s="358" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="332"/>
+      <c r="E53" s="358"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="333" t="s">
+      <c r="I53" s="359" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="334"/>
+      <c r="J53" s="360"/>
       <c r="K53" s="373">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
@@ -28755,22 +28802,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="339" t="s">
+      <c r="D57" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="340"/>
+      <c r="E57" s="366"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="380" t="s">
+      <c r="I57" s="382" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="381"/>
-      <c r="K57" s="382">
+      <c r="J57" s="383"/>
+      <c r="K57" s="384">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="382"/>
+      <c r="L57" s="384"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -28895,6 +28942,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28904,18 +28963,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30307,23 +30354,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="351" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="350"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -30336,17 +30383,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="354"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="355"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -30365,14 +30412,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="334" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="356"/>
-      <c r="H4" s="357" t="s">
+      <c r="F4" s="335"/>
+      <c r="H4" s="336" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="358"/>
+      <c r="I4" s="337"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -32259,11 +32306,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="351">
+      <c r="M45" s="356">
         <f>SUM(M5:M39)</f>
         <v>3007589</v>
       </c>
-      <c r="N45" s="362">
+      <c r="N45" s="341">
         <f>SUM(N5:N39)</f>
         <v>29752</v>
       </c>
@@ -32293,8 +32340,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="352"/>
-      <c r="N46" s="363"/>
+      <c r="M46" s="357"/>
+      <c r="N46" s="342"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -32386,29 +32433,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="364" t="s">
+      <c r="H51" s="343" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="365"/>
+      <c r="I51" s="344"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="366">
+      <c r="K51" s="345">
         <f>I49+L49</f>
         <v>84500.43</v>
       </c>
-      <c r="L51" s="367"/>
-      <c r="M51" s="368">
+      <c r="L51" s="346"/>
+      <c r="M51" s="347">
         <f>N45+M45</f>
         <v>3037341</v>
       </c>
-      <c r="N51" s="369"/>
+      <c r="N51" s="348"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="361" t="s">
+      <c r="D52" s="340" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="361"/>
+      <c r="E52" s="340"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2988109.57</v>
@@ -32419,17 +32466,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="332" t="s">
+      <c r="D53" s="358" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="332"/>
+      <c r="E53" s="358"/>
       <c r="F53" s="131">
         <v>-2955802.29</v>
       </c>
-      <c r="I53" s="333" t="s">
+      <c r="I53" s="359" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="334"/>
+      <c r="J53" s="360"/>
       <c r="K53" s="373">
         <f>F55+F56+F57</f>
         <v>419364.9699999998</v>
@@ -32486,22 +32533,22 @@
       <c r="C57" s="150">
         <v>45081</v>
       </c>
-      <c r="D57" s="339" t="s">
+      <c r="D57" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="340"/>
+      <c r="E57" s="366"/>
       <c r="F57" s="316">
         <v>345633.69</v>
       </c>
-      <c r="I57" s="380" t="s">
+      <c r="I57" s="382" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="381"/>
-      <c r="K57" s="382">
+      <c r="J57" s="383"/>
+      <c r="K57" s="384">
         <f>K53+K55</f>
         <v>24816.269999999786</v>
       </c>
-      <c r="L57" s="382"/>
+      <c r="L57" s="384"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -32626,18 +32673,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -32647,6 +32682,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  HERRADURA  Julio    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  HERRADURA  Julio    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="394">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1627,6 +1627,18 @@
   </si>
   <si>
     <t>NOMINA # 30</t>
+  </si>
+  <si>
+    <t>Guardias</t>
+  </si>
+  <si>
+    <t>fumigacin</t>
+  </si>
+  <si>
+    <t>COMISIONES Bco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comision </t>
   </si>
 </sst>
 </file>
@@ -3060,7 +3072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="388">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3707,6 +3719,69 @@
     <xf numFmtId="16" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3758,69 +3833,6 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3851,12 +3863,6 @@
     <xf numFmtId="166" fontId="3" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3866,11 +3872,20 @@
     <xf numFmtId="166" fontId="16" fillId="9" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="9" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="51" fillId="12" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7178,23 +7193,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="349"/>
-      <c r="C1" s="351" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="350"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7204,21 +7219,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="354"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="355" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="355"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="332" t="s">
+      <c r="R3" s="353" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7233,14 +7248,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="334" t="s">
+      <c r="E4" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="335"/>
-      <c r="H4" s="336" t="s">
+      <c r="F4" s="356"/>
+      <c r="H4" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="337"/>
+      <c r="I4" s="358"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7250,11 +7265,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="338" t="s">
+      <c r="P4" s="359" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="339"/>
-      <c r="R4" s="333"/>
+      <c r="Q4" s="360"/>
+      <c r="R4" s="354"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9059,11 +9074,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="356">
+      <c r="M49" s="351">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="341">
+      <c r="N49" s="362">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -9098,8 +9113,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="357"/>
-      <c r="N50" s="342"/>
+      <c r="M50" s="352"/>
+      <c r="N50" s="363"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -9191,29 +9206,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="343" t="s">
+      <c r="H55" s="364" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="344"/>
+      <c r="I55" s="365"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="345">
+      <c r="K55" s="366">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="346"/>
-      <c r="M55" s="347">
+      <c r="L55" s="367"/>
+      <c r="M55" s="368">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="348"/>
+      <c r="N55" s="369"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="340" t="s">
+      <c r="D56" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="340"/>
+      <c r="E56" s="361"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -9224,22 +9239,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="358" t="s">
+      <c r="D57" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="358"/>
+      <c r="E57" s="332"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="359" t="s">
+      <c r="I57" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="360"/>
-      <c r="K57" s="361">
+      <c r="J57" s="334"/>
+      <c r="K57" s="335">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="362"/>
+      <c r="L57" s="336"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -9270,11 +9285,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="363">
+      <c r="K59" s="337">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="364"/>
+      <c r="L59" s="338"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -9291,22 +9306,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="365" t="s">
+      <c r="D61" s="339" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="366"/>
+      <c r="E61" s="340"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="367" t="s">
+      <c r="I61" s="341" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="368"/>
-      <c r="K61" s="369">
+      <c r="J61" s="342"/>
+      <c r="K61" s="343">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="369"/>
+      <c r="L61" s="343"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -9431,18 +9446,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9452,6 +9455,18 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10881,23 +10896,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="349"/>
-      <c r="C1" s="351" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="350"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10910,17 +10925,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="354"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="355" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="355"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -10939,14 +10954,14 @@
       <c r="D4" s="307">
         <v>45081</v>
       </c>
-      <c r="E4" s="334" t="s">
+      <c r="E4" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="335"/>
-      <c r="H4" s="336" t="s">
+      <c r="F4" s="356"/>
+      <c r="H4" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="337"/>
+      <c r="I4" s="358"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -12744,11 +12759,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="356">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
         <v>3170751</v>
       </c>
-      <c r="N45" s="341">
+      <c r="N45" s="362">
         <f>SUM(N5:N39)</f>
         <v>31751.230000000003</v>
       </c>
@@ -12778,8 +12793,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="357"/>
-      <c r="N46" s="342"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="363"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -12871,29 +12886,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="343" t="s">
+      <c r="H51" s="364" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="344"/>
+      <c r="I51" s="365"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="345">
+      <c r="K51" s="366">
         <f>I49+L49</f>
         <v>66093.360000000015</v>
       </c>
-      <c r="L51" s="346"/>
-      <c r="M51" s="347">
+      <c r="L51" s="367"/>
+      <c r="M51" s="368">
         <f>N45+M45</f>
         <v>3202502.23</v>
       </c>
-      <c r="N51" s="348"/>
+      <c r="N51" s="369"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="340" t="s">
+      <c r="D52" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="340"/>
+      <c r="E52" s="361"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>3132761.64</v>
@@ -12904,17 +12919,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="358" t="s">
+      <c r="D53" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="358"/>
+      <c r="E53" s="332"/>
       <c r="F53" s="131">
         <v>-3128572.23</v>
       </c>
-      <c r="I53" s="359" t="s">
+      <c r="I53" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="360"/>
+      <c r="J53" s="334"/>
       <c r="K53" s="373">
         <f>F55+F56+F57</f>
         <v>417897.52000000014</v>
@@ -12971,22 +12986,22 @@
       <c r="C57" s="150">
         <v>45109</v>
       </c>
-      <c r="D57" s="365" t="s">
+      <c r="D57" s="339" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="366"/>
+      <c r="E57" s="340"/>
       <c r="F57" s="316">
         <v>359108.11</v>
       </c>
-      <c r="I57" s="382" t="s">
+      <c r="I57" s="380" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="383"/>
-      <c r="K57" s="384">
+      <c r="J57" s="381"/>
+      <c r="K57" s="382">
         <f>K53+K55</f>
         <v>72263.830000000133</v>
       </c>
-      <c r="L57" s="384"/>
+      <c r="L57" s="382"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -13111,6 +13126,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13120,18 +13147,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13147,8 +13162,8 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14014,7 +14029,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="325"/>
+      <c r="A49" s="325" t="s">
+        <v>9</v>
+      </c>
       <c r="B49" s="321"/>
       <c r="C49" s="322"/>
       <c r="D49" s="192"/>
@@ -14516,8 +14533,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14542,23 +14559,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="349"/>
-      <c r="C1" s="351" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="350"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -14571,17 +14588,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="354"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="355" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="355"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -14600,14 +14617,14 @@
       <c r="D4" s="307">
         <v>45109</v>
       </c>
-      <c r="E4" s="334" t="s">
+      <c r="E4" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="335"/>
-      <c r="H4" s="336" t="s">
+      <c r="F4" s="356"/>
+      <c r="H4" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="337"/>
+      <c r="I4" s="358"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -15929,17 +15946,22 @@
       <c r="E32" s="27">
         <v>45137</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>143637</v>
+      </c>
       <c r="G32" s="29"/>
       <c r="H32" s="30">
         <v>45137</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="31">
+        <v>5</v>
+      </c>
       <c r="J32" s="86"/>
       <c r="K32" s="280"/>
       <c r="L32" s="281"/>
       <c r="M32" s="33">
-        <v>0</v>
+        <f>116000+27632</f>
+        <v>143632</v>
       </c>
       <c r="N32" s="34">
         <v>0</v>
@@ -15947,7 +15969,7 @@
       <c r="O32" s="35"/>
       <c r="P32" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>143637</v>
       </c>
       <c r="Q32" s="236">
         <f t="shared" si="1"/>
@@ -16001,9 +16023,15 @@
       <c r="G34" s="29"/>
       <c r="H34" s="30"/>
       <c r="I34" s="31"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="284"/>
+      <c r="J34" s="86">
+        <v>45111</v>
+      </c>
+      <c r="K34" s="387" t="s">
+        <v>390</v>
+      </c>
+      <c r="L34" s="284">
+        <v>14500</v>
+      </c>
       <c r="M34" s="33">
         <v>0</v>
       </c>
@@ -16013,11 +16041,11 @@
       <c r="O34" s="35"/>
       <c r="P34" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="Q34" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="R34" s="238">
         <v>0</v>
@@ -16034,9 +16062,15 @@
       <c r="G35" s="29"/>
       <c r="H35" s="30"/>
       <c r="I35" s="31"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="282"/>
-      <c r="L35" s="216"/>
+      <c r="J35" s="86">
+        <v>45114</v>
+      </c>
+      <c r="K35" s="282" t="s">
+        <v>391</v>
+      </c>
+      <c r="L35" s="216">
+        <v>1392</v>
+      </c>
       <c r="M35" s="33">
         <v>0</v>
       </c>
@@ -16046,11 +16080,11 @@
       <c r="O35" s="35"/>
       <c r="P35" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="Q35" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="R35" s="238">
         <v>0</v>
@@ -16067,9 +16101,15 @@
       <c r="G36" s="29"/>
       <c r="H36" s="30"/>
       <c r="I36" s="31"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="285"/>
-      <c r="L36" s="216"/>
+      <c r="J36" s="86">
+        <v>45128</v>
+      </c>
+      <c r="K36" s="319" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36" s="216">
+        <v>549</v>
+      </c>
       <c r="M36" s="33">
         <v>0</v>
       </c>
@@ -16079,11 +16119,11 @@
       <c r="O36" s="35"/>
       <c r="P36" s="235">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="Q36" s="236">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="R36" s="238">
         <v>0</v>
@@ -16100,9 +16140,15 @@
       <c r="G37" s="29"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="330"/>
-      <c r="L37" s="216"/>
+      <c r="J37" s="86">
+        <v>45135</v>
+      </c>
+      <c r="K37" s="285" t="s">
+        <v>109</v>
+      </c>
+      <c r="L37" s="216">
+        <v>1031.47</v>
+      </c>
       <c r="M37" s="33">
         <v>0</v>
       </c>
@@ -16133,8 +16179,12 @@
       <c r="H38" s="30"/>
       <c r="I38" s="31"/>
       <c r="J38" s="86"/>
-      <c r="K38" s="282"/>
-      <c r="L38" s="216"/>
+      <c r="K38" s="330" t="s">
+        <v>392</v>
+      </c>
+      <c r="L38" s="216">
+        <v>1032.9000000000001</v>
+      </c>
       <c r="M38" s="33">
         <v>0</v>
       </c>
@@ -16165,8 +16215,12 @@
       <c r="H39" s="30"/>
       <c r="I39" s="31"/>
       <c r="J39" s="86"/>
-      <c r="K39" s="319"/>
-      <c r="L39" s="281"/>
+      <c r="K39" s="282" t="s">
+        <v>393</v>
+      </c>
+      <c r="L39" s="281">
+        <v>1225.1199999999999</v>
+      </c>
       <c r="M39" s="33">
         <v>0</v>
       </c>
@@ -16358,21 +16412,21 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="356">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
-        <v>3581808</v>
-      </c>
-      <c r="N45" s="341">
+        <v>3725440</v>
+      </c>
+      <c r="N45" s="362">
         <f>SUM(N5:N39)</f>
         <v>22373</v>
       </c>
       <c r="P45" s="98">
         <f t="shared" si="0"/>
-        <v>3604181</v>
+        <v>3747813</v>
       </c>
       <c r="Q45" s="236">
         <f>SUM(Q5:Q44)</f>
-        <v>713</v>
+        <v>17154</v>
       </c>
       <c r="R45" s="329">
         <f>SUM(R5:R39)</f>
@@ -16392,8 +16446,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="357"/>
-      <c r="N46" s="342"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="363"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="236">
         <f t="shared" si="1"/>
@@ -16457,7 +16511,7 @@
       </c>
       <c r="F49" s="125">
         <f>SUM(F5:F48)</f>
-        <v>3671894</v>
+        <v>3815531</v>
       </c>
       <c r="G49" s="123"/>
       <c r="H49" s="126" t="s">
@@ -16465,7 +16519,7 @@
       </c>
       <c r="I49" s="127">
         <f>SUM(I5:I48)</f>
-        <v>3178</v>
+        <v>3183</v>
       </c>
       <c r="J49" s="290"/>
       <c r="K49" s="291" t="s">
@@ -16473,7 +16527,7 @@
       </c>
       <c r="L49" s="292">
         <f>SUM(L5:L48)</f>
-        <v>36396</v>
+        <v>56126.490000000005</v>
       </c>
       <c r="M49" s="131"/>
       <c r="N49" s="131"/>
@@ -16491,32 +16545,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="343" t="s">
+      <c r="H51" s="364" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="344"/>
+      <c r="I51" s="365"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="345">
+      <c r="K51" s="366">
         <f>I49+L49</f>
-        <v>39574</v>
-      </c>
-      <c r="L51" s="346"/>
-      <c r="M51" s="347">
+        <v>59309.490000000005</v>
+      </c>
+      <c r="L51" s="367"/>
+      <c r="M51" s="368">
         <f>N45+M45</f>
-        <v>3604181</v>
-      </c>
-      <c r="N51" s="348"/>
+        <v>3747813</v>
+      </c>
+      <c r="N51" s="369"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="340" t="s">
+      <c r="D52" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="340"/>
+      <c r="E52" s="361"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>3548868</v>
+        <v>3672769.51</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -16524,20 +16578,20 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="358" t="s">
+      <c r="D53" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="358"/>
+      <c r="E53" s="332"/>
       <c r="F53" s="131">
         <v>0</v>
       </c>
-      <c r="I53" s="359" t="s">
+      <c r="I53" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="360"/>
+      <c r="J53" s="334"/>
       <c r="K53" s="373">
         <f>F55+F56+F57</f>
-        <v>3907096.12</v>
+        <v>4132439.63</v>
       </c>
       <c r="L53" s="374"/>
       <c r="P53" s="36"/>
@@ -16564,7 +16618,7 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>3548868</v>
+        <v>3672769.51</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
@@ -16586,29 +16640,29 @@
         <v>20</v>
       </c>
       <c r="F56" s="149">
-        <v>0</v>
+        <v>101442</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="150">
         <v>45137</v>
       </c>
-      <c r="D57" s="365" t="s">
+      <c r="D57" s="339" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="366"/>
+      <c r="E57" s="340"/>
       <c r="F57" s="316">
         <v>358228.12</v>
       </c>
-      <c r="I57" s="382" t="s">
+      <c r="I57" s="380" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="383"/>
-      <c r="K57" s="384">
+      <c r="J57" s="381"/>
+      <c r="K57" s="382">
         <f>K53+K55</f>
-        <v>3547988.0100000002</v>
-      </c>
-      <c r="L57" s="384"/>
+        <v>3773331.52</v>
+      </c>
+      <c r="L57" s="382"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -16732,19 +16786,10 @@
       <c r="F79" s="166"/>
     </row>
   </sheetData>
+  <sortState ref="J34:L39">
+    <sortCondition ref="J34:J39"/>
+  </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16754,6 +16799,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19222,23 +19279,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="349"/>
-      <c r="C1" s="351" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="350"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -19248,21 +19305,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="354"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="355" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="355"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="332" t="s">
+      <c r="R3" s="353" t="s">
         <v>2</v>
       </c>
     </row>
@@ -19277,14 +19334,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="334" t="s">
+      <c r="E4" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="335"/>
-      <c r="H4" s="336" t="s">
+      <c r="F4" s="356"/>
+      <c r="H4" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="337"/>
+      <c r="I4" s="358"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -21099,11 +21156,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="356">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="341">
+      <c r="N45" s="362">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -21133,8 +21190,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="357"/>
-      <c r="N46" s="342"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="363"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -21226,29 +21283,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="343" t="s">
+      <c r="H51" s="364" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="344"/>
+      <c r="I51" s="365"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="345">
+      <c r="K51" s="366">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="346"/>
-      <c r="M51" s="347">
+      <c r="L51" s="367"/>
+      <c r="M51" s="368">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="348"/>
+      <c r="N51" s="369"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="340" t="s">
+      <c r="D52" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="340"/>
+      <c r="E52" s="361"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -21259,22 +21316,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="358" t="s">
+      <c r="D53" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="358"/>
+      <c r="E53" s="332"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="359" t="s">
+      <c r="I53" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="360"/>
-      <c r="K53" s="361">
+      <c r="J53" s="334"/>
+      <c r="K53" s="335">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="362"/>
+      <c r="L53" s="336"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -21305,11 +21362,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="363">
+      <c r="K55" s="337">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="364"/>
+      <c r="L55" s="338"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -21326,22 +21383,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="365" t="s">
+      <c r="D57" s="339" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="366"/>
+      <c r="E57" s="340"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="367" t="s">
+      <c r="I57" s="341" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="368"/>
-      <c r="K57" s="369">
+      <c r="J57" s="342"/>
+      <c r="K57" s="343">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="369"/>
+      <c r="L57" s="343"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -21466,18 +21523,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -21487,6 +21532,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22945,23 +23002,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="349"/>
-      <c r="C1" s="351" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="350"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -22971,21 +23028,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="354"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="355" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="355"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="332" t="s">
+      <c r="R3" s="353" t="s">
         <v>2</v>
       </c>
     </row>
@@ -23000,14 +23057,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="334" t="s">
+      <c r="E4" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="335"/>
-      <c r="H4" s="336" t="s">
+      <c r="F4" s="356"/>
+      <c r="H4" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="337"/>
+      <c r="I4" s="358"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -24814,11 +24871,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="356">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="341">
+      <c r="N45" s="362">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -24848,8 +24905,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="357"/>
-      <c r="N46" s="342"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="363"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -24941,29 +24998,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="343" t="s">
+      <c r="H51" s="364" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="344"/>
+      <c r="I51" s="365"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="345">
+      <c r="K51" s="366">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="346"/>
-      <c r="M51" s="347">
+      <c r="L51" s="367"/>
+      <c r="M51" s="368">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="348"/>
+      <c r="N51" s="369"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="340" t="s">
+      <c r="D52" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="340"/>
+      <c r="E52" s="361"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -24974,17 +25031,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="358" t="s">
+      <c r="D53" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="358"/>
+      <c r="E53" s="332"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="359" t="s">
+      <c r="I53" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="360"/>
+      <c r="J53" s="334"/>
       <c r="K53" s="373">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
@@ -25041,10 +25098,10 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="365" t="s">
+      <c r="D57" s="339" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="366"/>
+      <c r="E57" s="340"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
@@ -25181,6 +25238,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -25190,18 +25259,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26603,23 +26660,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="349"/>
-      <c r="C1" s="351" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="350"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -26632,21 +26689,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="354"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="355" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="355"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="380" t="s">
+      <c r="R3" s="383" t="s">
         <v>2</v>
       </c>
     </row>
@@ -26661,14 +26718,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="334" t="s">
+      <c r="E4" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="335"/>
-      <c r="H4" s="336" t="s">
+      <c r="F4" s="356"/>
+      <c r="H4" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="337"/>
+      <c r="I4" s="358"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -26682,7 +26739,7 @@
         <v>8</v>
       </c>
       <c r="Q4" s="372"/>
-      <c r="R4" s="381"/>
+      <c r="R4" s="384"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -28569,11 +28626,11 @@
       <c r="L45" s="312">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="356">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="341">
+      <c r="N45" s="362">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -28609,8 +28666,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="357"/>
-      <c r="N46" s="342"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="363"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -28702,29 +28759,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="343" t="s">
+      <c r="H51" s="364" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="344"/>
+      <c r="I51" s="365"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="345">
+      <c r="K51" s="366">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="346"/>
-      <c r="M51" s="347">
+      <c r="L51" s="367"/>
+      <c r="M51" s="368">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="348"/>
+      <c r="N51" s="369"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="340" t="s">
+      <c r="D52" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="340"/>
+      <c r="E52" s="361"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -28735,17 +28792,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="358" t="s">
+      <c r="D53" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="358"/>
+      <c r="E53" s="332"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="359" t="s">
+      <c r="I53" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="360"/>
+      <c r="J53" s="334"/>
       <c r="K53" s="373">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
@@ -28802,22 +28859,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="365" t="s">
+      <c r="D57" s="339" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="366"/>
+      <c r="E57" s="340"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="382" t="s">
+      <c r="I57" s="380" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="383"/>
-      <c r="K57" s="384">
+      <c r="J57" s="381"/>
+      <c r="K57" s="382">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="384"/>
+      <c r="L57" s="382"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -28942,18 +28999,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28963,6 +29008,18 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30354,23 +30411,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="349"/>
-      <c r="C1" s="351" t="s">
+      <c r="B1" s="344"/>
+      <c r="C1" s="346" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="352"/>
-      <c r="E1" s="352"/>
-      <c r="F1" s="352"/>
-      <c r="G1" s="352"/>
-      <c r="H1" s="352"/>
-      <c r="I1" s="352"/>
-      <c r="J1" s="352"/>
-      <c r="K1" s="352"/>
-      <c r="L1" s="352"/>
-      <c r="M1" s="352"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="347"/>
+      <c r="F1" s="347"/>
+      <c r="G1" s="347"/>
+      <c r="H1" s="347"/>
+      <c r="I1" s="347"/>
+      <c r="J1" s="347"/>
+      <c r="K1" s="347"/>
+      <c r="L1" s="347"/>
+      <c r="M1" s="347"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="350"/>
+      <c r="B2" s="345"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -30383,17 +30440,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="353" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="354"/>
+      <c r="B3" s="348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="349"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="355" t="s">
+      <c r="H3" s="350" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="355"/>
+      <c r="I3" s="350"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
@@ -30412,14 +30469,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="334" t="s">
+      <c r="E4" s="355" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="335"/>
-      <c r="H4" s="336" t="s">
+      <c r="F4" s="356"/>
+      <c r="H4" s="357" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="337"/>
+      <c r="I4" s="358"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -32306,11 +32363,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="356">
+      <c r="M45" s="351">
         <f>SUM(M5:M39)</f>
         <v>3007589</v>
       </c>
-      <c r="N45" s="341">
+      <c r="N45" s="362">
         <f>SUM(N5:N39)</f>
         <v>29752</v>
       </c>
@@ -32340,8 +32397,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="357"/>
-      <c r="N46" s="342"/>
+      <c r="M46" s="352"/>
+      <c r="N46" s="363"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -32433,29 +32490,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="343" t="s">
+      <c r="H51" s="364" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="344"/>
+      <c r="I51" s="365"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="345">
+      <c r="K51" s="366">
         <f>I49+L49</f>
         <v>84500.43</v>
       </c>
-      <c r="L51" s="346"/>
-      <c r="M51" s="347">
+      <c r="L51" s="367"/>
+      <c r="M51" s="368">
         <f>N45+M45</f>
         <v>3037341</v>
       </c>
-      <c r="N51" s="348"/>
+      <c r="N51" s="369"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="340" t="s">
+      <c r="D52" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="340"/>
+      <c r="E52" s="361"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2988109.57</v>
@@ -32466,17 +32523,17 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="358" t="s">
+      <c r="D53" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="358"/>
+      <c r="E53" s="332"/>
       <c r="F53" s="131">
         <v>-2955802.29</v>
       </c>
-      <c r="I53" s="359" t="s">
+      <c r="I53" s="333" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="360"/>
+      <c r="J53" s="334"/>
       <c r="K53" s="373">
         <f>F55+F56+F57</f>
         <v>419364.9699999998</v>
@@ -32533,22 +32590,22 @@
       <c r="C57" s="150">
         <v>45081</v>
       </c>
-      <c r="D57" s="365" t="s">
+      <c r="D57" s="339" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="366"/>
+      <c r="E57" s="340"/>
       <c r="F57" s="316">
         <v>345633.69</v>
       </c>
-      <c r="I57" s="382" t="s">
+      <c r="I57" s="380" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="383"/>
-      <c r="K57" s="384">
+      <c r="J57" s="381"/>
+      <c r="K57" s="382">
         <f>K53+K55</f>
         <v>24816.269999999786</v>
       </c>
-      <c r="L57" s="384"/>
+      <c r="L57" s="382"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -32673,6 +32730,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M45:M46"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -32682,18 +32751,6 @@
     <mergeCell ref="H51:I51"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="M51:N51"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  HERRADURA  Julio    2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #07  J U L I O  2023/BALANCE  HERRADURA  Julio    2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="451">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1639,6 +1639,177 @@
   </si>
   <si>
     <t xml:space="preserve">Comision </t>
+  </si>
+  <si>
+    <t>15304 E</t>
+  </si>
+  <si>
+    <t>15348 E</t>
+  </si>
+  <si>
+    <t>15501 E</t>
+  </si>
+  <si>
+    <t>15578 E</t>
+  </si>
+  <si>
+    <t>15735 E</t>
+  </si>
+  <si>
+    <t>15751 E</t>
+  </si>
+  <si>
+    <t>15780 E</t>
+  </si>
+  <si>
+    <t>15785 E</t>
+  </si>
+  <si>
+    <t>15956 E</t>
+  </si>
+  <si>
+    <t>15825 E</t>
+  </si>
+  <si>
+    <t>16008 E</t>
+  </si>
+  <si>
+    <t>16078 E</t>
+  </si>
+  <si>
+    <t>16124 E</t>
+  </si>
+  <si>
+    <t>16182 E</t>
+  </si>
+  <si>
+    <t>16252 E</t>
+  </si>
+  <si>
+    <t>16253 E</t>
+  </si>
+  <si>
+    <t>16351 E</t>
+  </si>
+  <si>
+    <t>16502 E</t>
+  </si>
+  <si>
+    <t>16566 E</t>
+  </si>
+  <si>
+    <t>16567 E</t>
+  </si>
+  <si>
+    <t>16569 E</t>
+  </si>
+  <si>
+    <t>16654 E</t>
+  </si>
+  <si>
+    <t>16740 E</t>
+  </si>
+  <si>
+    <t>167587 E</t>
+  </si>
+  <si>
+    <t>16758 E</t>
+  </si>
+  <si>
+    <t>16831 E</t>
+  </si>
+  <si>
+    <t>16833 E</t>
+  </si>
+  <si>
+    <t>16836 E</t>
+  </si>
+  <si>
+    <t>16882 E</t>
+  </si>
+  <si>
+    <t>16986 E</t>
+  </si>
+  <si>
+    <t>16987 E</t>
+  </si>
+  <si>
+    <t>17005 E</t>
+  </si>
+  <si>
+    <t>17006 E</t>
+  </si>
+  <si>
+    <t>17079 E</t>
+  </si>
+  <si>
+    <t>17082 E</t>
+  </si>
+  <si>
+    <t>17243 E</t>
+  </si>
+  <si>
+    <t>17244 E</t>
+  </si>
+  <si>
+    <t>17245 E</t>
+  </si>
+  <si>
+    <t>17277 E</t>
+  </si>
+  <si>
+    <t>17278 E</t>
+  </si>
+  <si>
+    <t>17426 E</t>
+  </si>
+  <si>
+    <t>17427 E</t>
+  </si>
+  <si>
+    <t>17438 E</t>
+  </si>
+  <si>
+    <t>17439 E</t>
+  </si>
+  <si>
+    <t>17465 E</t>
+  </si>
+  <si>
+    <t>17516 E</t>
+  </si>
+  <si>
+    <t>17682 E</t>
+  </si>
+  <si>
+    <t>17683 E</t>
+  </si>
+  <si>
+    <t>17815 E</t>
+  </si>
+  <si>
+    <t>17822 E</t>
+  </si>
+  <si>
+    <t>17842 E</t>
+  </si>
+  <si>
+    <t>17922 E</t>
+  </si>
+  <si>
+    <t>17923 E</t>
+  </si>
+  <si>
+    <t>17951 E</t>
+  </si>
+  <si>
+    <t>18064 E</t>
+  </si>
+  <si>
+    <t>18065 E</t>
+  </si>
+  <si>
+    <t>18074 E</t>
   </si>
 </sst>
 </file>
@@ -3072,7 +3243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="388">
+  <cellXfs count="398">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3719,6 +3890,36 @@
     <xf numFmtId="16" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="48" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3884,8 +4085,8 @@
     <xf numFmtId="44" fontId="51" fillId="12" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="166" fontId="16" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7193,23 +7394,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="356" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="355"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7219,21 +7420,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="359"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="360"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="353" t="s">
+      <c r="R3" s="363" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7248,14 +7449,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="356"/>
-      <c r="H4" s="357" t="s">
+      <c r="F4" s="366"/>
+      <c r="H4" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="358"/>
+      <c r="I4" s="368"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7265,11 +7466,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="359" t="s">
+      <c r="P4" s="369" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="360"/>
-      <c r="R4" s="354"/>
+      <c r="Q4" s="370"/>
+      <c r="R4" s="364"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9074,11 +9275,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="351">
+      <c r="M49" s="361">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="362">
+      <c r="N49" s="372">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -9113,8 +9314,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="352"/>
-      <c r="N50" s="363"/>
+      <c r="M50" s="362"/>
+      <c r="N50" s="373"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -9206,29 +9407,29 @@
       <c r="A55" s="133"/>
       <c r="B55" s="134"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="364" t="s">
+      <c r="H55" s="374" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="365"/>
+      <c r="I55" s="375"/>
       <c r="J55" s="135"/>
-      <c r="K55" s="366">
+      <c r="K55" s="376">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="367"/>
-      <c r="M55" s="368">
+      <c r="L55" s="377"/>
+      <c r="M55" s="378">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="369"/>
+      <c r="N55" s="379"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="361" t="s">
+      <c r="D56" s="371" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="361"/>
+      <c r="E56" s="371"/>
       <c r="F56" s="136">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -9239,22 +9440,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="332" t="s">
+      <c r="D57" s="342" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="332"/>
+      <c r="E57" s="342"/>
       <c r="F57" s="131">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="333" t="s">
+      <c r="I57" s="343" t="s">
         <v>16</v>
       </c>
-      <c r="J57" s="334"/>
-      <c r="K57" s="335">
+      <c r="J57" s="344"/>
+      <c r="K57" s="345">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="336"/>
+      <c r="L57" s="346"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -9285,11 +9486,11 @@
         <v>18</v>
       </c>
       <c r="J59" s="147"/>
-      <c r="K59" s="337">
+      <c r="K59" s="347">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="338"/>
+      <c r="L59" s="348"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="148" t="s">
@@ -9306,22 +9507,22 @@
       <c r="C61" s="150">
         <v>44955</v>
       </c>
-      <c r="D61" s="339" t="s">
+      <c r="D61" s="349" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="340"/>
+      <c r="E61" s="350"/>
       <c r="F61" s="151">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="341" t="s">
+      <c r="I61" s="351" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="342"/>
-      <c r="K61" s="343">
+      <c r="J61" s="352"/>
+      <c r="K61" s="353">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="343"/>
+      <c r="L61" s="353"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="152"/>
@@ -10896,23 +11097,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="356" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="355"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -10925,21 +11126,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="359"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="360"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="385" t="s">
+      <c r="R3" s="395" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10954,14 +11155,14 @@
       <c r="D4" s="307">
         <v>45081</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="356"/>
-      <c r="H4" s="357" t="s">
+      <c r="F4" s="366"/>
+      <c r="H4" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="358"/>
+      <c r="I4" s="368"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -10971,11 +11172,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="371" t="s">
+      <c r="P4" s="381" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="372"/>
-      <c r="R4" s="386"/>
+      <c r="Q4" s="382"/>
+      <c r="R4" s="396"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -12759,11 +12960,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="351">
+      <c r="M45" s="361">
         <f>SUM(M5:M39)</f>
         <v>3170751</v>
       </c>
-      <c r="N45" s="362">
+      <c r="N45" s="372">
         <f>SUM(N5:N39)</f>
         <v>31751.230000000003</v>
       </c>
@@ -12793,8 +12994,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="352"/>
-      <c r="N46" s="363"/>
+      <c r="M46" s="362"/>
+      <c r="N46" s="373"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -12886,29 +13087,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="364" t="s">
+      <c r="H51" s="374" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="365"/>
+      <c r="I51" s="375"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="366">
+      <c r="K51" s="376">
         <f>I49+L49</f>
         <v>66093.360000000015</v>
       </c>
-      <c r="L51" s="367"/>
-      <c r="M51" s="368">
+      <c r="L51" s="377"/>
+      <c r="M51" s="378">
         <f>N45+M45</f>
         <v>3202502.23</v>
       </c>
-      <c r="N51" s="369"/>
+      <c r="N51" s="379"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="361" t="s">
+      <c r="D52" s="371" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="361"/>
+      <c r="E52" s="371"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>3132761.64</v>
@@ -12919,22 +13120,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="332" t="s">
+      <c r="D53" s="342" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="332"/>
+      <c r="E53" s="342"/>
       <c r="F53" s="131">
         <v>-3128572.23</v>
       </c>
-      <c r="I53" s="333" t="s">
+      <c r="I53" s="343" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="334"/>
-      <c r="K53" s="373">
+      <c r="J53" s="344"/>
+      <c r="K53" s="383">
         <f>F55+F56+F57</f>
         <v>417897.52000000014</v>
       </c>
-      <c r="L53" s="374"/>
+      <c r="L53" s="384"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -12965,11 +13166,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="375">
+      <c r="K55" s="385">
         <f>-C4</f>
         <v>-345633.69</v>
       </c>
-      <c r="L55" s="376"/>
+      <c r="L55" s="386"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -12986,22 +13187,22 @@
       <c r="C57" s="150">
         <v>45109</v>
       </c>
-      <c r="D57" s="339" t="s">
+      <c r="D57" s="349" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="340"/>
+      <c r="E57" s="350"/>
       <c r="F57" s="316">
         <v>359108.11</v>
       </c>
-      <c r="I57" s="380" t="s">
+      <c r="I57" s="390" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="381"/>
-      <c r="K57" s="382">
+      <c r="J57" s="391"/>
+      <c r="K57" s="392">
         <f>K53+K55</f>
         <v>72263.830000000133</v>
       </c>
-      <c r="L57" s="382"/>
+      <c r="L57" s="392"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -13162,7 +13363,7 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -14533,8 +14734,8 @@
   </sheetPr>
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14559,23 +14760,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="356" t="s">
         <v>381</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="355"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -14588,21 +14789,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="359"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="360"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="385" t="s">
+      <c r="R3" s="395" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14617,14 +14818,14 @@
       <c r="D4" s="307">
         <v>45109</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="356"/>
-      <c r="H4" s="357" t="s">
+      <c r="F4" s="366"/>
+      <c r="H4" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="358"/>
+      <c r="I4" s="368"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -14634,11 +14835,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="371" t="s">
+      <c r="P4" s="381" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="372"/>
-      <c r="R4" s="386"/>
+      <c r="Q4" s="382"/>
+      <c r="R4" s="396"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -16016,7 +16217,9 @@
     <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
+      <c r="C34" s="25">
+        <v>854250</v>
+      </c>
       <c r="D34" s="82"/>
       <c r="E34" s="27"/>
       <c r="F34" s="28"/>
@@ -16026,7 +16229,7 @@
       <c r="J34" s="86">
         <v>45111</v>
       </c>
-      <c r="K34" s="387" t="s">
+      <c r="K34" s="332" t="s">
         <v>390</v>
       </c>
       <c r="L34" s="284">
@@ -16041,11 +16244,11 @@
       <c r="O34" s="35"/>
       <c r="P34" s="235">
         <f t="shared" si="0"/>
-        <v>14500</v>
+        <v>868750</v>
       </c>
       <c r="Q34" s="236">
         <f t="shared" si="1"/>
-        <v>14500</v>
+        <v>868750</v>
       </c>
       <c r="R34" s="238">
         <v>0</v>
@@ -16055,7 +16258,9 @@
     <row r="35" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
+      <c r="C35" s="25">
+        <v>37120</v>
+      </c>
       <c r="D35" s="77"/>
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
@@ -16080,11 +16285,11 @@
       <c r="O35" s="35"/>
       <c r="P35" s="235">
         <f t="shared" si="0"/>
-        <v>1392</v>
+        <v>38512</v>
       </c>
       <c r="Q35" s="236">
         <f t="shared" si="1"/>
-        <v>1392</v>
+        <v>38512</v>
       </c>
       <c r="R35" s="238">
         <v>0</v>
@@ -16094,7 +16299,9 @@
     <row r="36" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
+      <c r="C36" s="25">
+        <v>943600</v>
+      </c>
       <c r="D36" s="85"/>
       <c r="E36" s="27"/>
       <c r="F36" s="28"/>
@@ -16119,11 +16326,11 @@
       <c r="O36" s="35"/>
       <c r="P36" s="235">
         <f t="shared" si="0"/>
-        <v>549</v>
+        <v>944149</v>
       </c>
       <c r="Q36" s="236">
         <f t="shared" si="1"/>
-        <v>549</v>
+        <v>944149</v>
       </c>
       <c r="R36" s="238">
         <v>0</v>
@@ -16133,7 +16340,9 @@
     <row r="37" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
+      <c r="C37" s="25">
+        <v>37120</v>
+      </c>
       <c r="D37" s="82"/>
       <c r="E37" s="27"/>
       <c r="F37" s="28"/>
@@ -16412,11 +16621,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="351">
+      <c r="M45" s="361">
         <f>SUM(M5:M39)</f>
         <v>3725440</v>
       </c>
-      <c r="N45" s="362">
+      <c r="N45" s="372">
         <f>SUM(N5:N39)</f>
         <v>22373</v>
       </c>
@@ -16426,7 +16635,7 @@
       </c>
       <c r="Q45" s="236">
         <f>SUM(Q5:Q44)</f>
-        <v>17154</v>
+        <v>1852124</v>
       </c>
       <c r="R45" s="329">
         <f>SUM(R5:R39)</f>
@@ -16446,8 +16655,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="352"/>
-      <c r="N46" s="363"/>
+      <c r="M46" s="362"/>
+      <c r="N46" s="373"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="236">
         <f t="shared" si="1"/>
@@ -16503,7 +16712,7 @@
       </c>
       <c r="C49" s="122">
         <f>SUM(C5:C48)</f>
-        <v>83452</v>
+        <v>1955542</v>
       </c>
       <c r="D49" s="123"/>
       <c r="E49" s="124" t="s">
@@ -16545,32 +16754,32 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="364" t="s">
+      <c r="H51" s="374" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="365"/>
+      <c r="I51" s="375"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="366">
+      <c r="K51" s="376">
         <f>I49+L49</f>
         <v>59309.490000000005</v>
       </c>
-      <c r="L51" s="367"/>
-      <c r="M51" s="368">
+      <c r="L51" s="377"/>
+      <c r="M51" s="378">
         <f>N45+M45</f>
         <v>3747813</v>
       </c>
-      <c r="N51" s="369"/>
+      <c r="N51" s="379"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="361" t="s">
+      <c r="D52" s="371" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="361"/>
+      <c r="E52" s="371"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
-        <v>3672769.51</v>
+        <v>1800679.5099999998</v>
       </c>
       <c r="I52" s="137"/>
       <c r="J52" s="138"/>
@@ -16578,22 +16787,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="332" t="s">
+      <c r="D53" s="342" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="332"/>
+      <c r="E53" s="342"/>
       <c r="F53" s="131">
-        <v>0</v>
-      </c>
-      <c r="I53" s="333" t="s">
+        <v>-2396693.7400000002</v>
+      </c>
+      <c r="I53" s="343" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="334"/>
-      <c r="K53" s="373">
+      <c r="J53" s="344"/>
+      <c r="K53" s="383">
         <f>F55+F56+F57</f>
-        <v>4132439.63</v>
-      </c>
-      <c r="L53" s="374"/>
+        <v>-136344.11000000045</v>
+      </c>
+      <c r="L53" s="384"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -16618,18 +16827,18 @@
       </c>
       <c r="F55" s="131">
         <f>SUM(F52:F54)</f>
-        <v>3672769.51</v>
+        <v>-596014.23000000045</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="146" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="375">
+      <c r="K55" s="385">
         <f>-C4</f>
         <v>-359108.11</v>
       </c>
-      <c r="L55" s="376"/>
+      <c r="L55" s="386"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -16647,22 +16856,22 @@
       <c r="C57" s="150">
         <v>45137</v>
       </c>
-      <c r="D57" s="339" t="s">
+      <c r="D57" s="349" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="340"/>
+      <c r="E57" s="350"/>
       <c r="F57" s="316">
         <v>358228.12</v>
       </c>
-      <c r="I57" s="380" t="s">
-        <v>22</v>
-      </c>
-      <c r="J57" s="381"/>
-      <c r="K57" s="382">
+      <c r="I57" s="387" t="s">
+        <v>170</v>
+      </c>
+      <c r="J57" s="388"/>
+      <c r="K57" s="397">
         <f>K53+K55</f>
-        <v>3773331.52</v>
-      </c>
-      <c r="L57" s="382"/>
+        <v>-495452.22000000044</v>
+      </c>
+      <c r="L57" s="397"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -16827,12 +17036,13 @@
   <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <pane ySplit="2" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="206" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="156" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="207" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="209" bestFit="1" customWidth="1"/>
@@ -16844,7 +17054,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="333" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="168"/>
@@ -16856,7 +17066,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="334" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="173" t="s">
@@ -16876,348 +17086,528 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="320"/>
-      <c r="B3" s="321"/>
-      <c r="C3" s="322"/>
+      <c r="A3" s="335">
+        <v>45110</v>
+      </c>
+      <c r="B3" s="341" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" s="322">
+        <v>127061.9</v>
+      </c>
       <c r="D3" s="244"/>
       <c r="E3" s="220"/>
       <c r="F3" s="180">
         <f>C3-E3</f>
-        <v>0</v>
+        <v>127061.9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="320"/>
-      <c r="B4" s="321"/>
-      <c r="C4" s="322"/>
+      <c r="A4" s="335">
+        <v>45111</v>
+      </c>
+      <c r="B4" s="341" t="s">
+        <v>395</v>
+      </c>
+      <c r="C4" s="322">
+        <v>106089.8</v>
+      </c>
       <c r="D4" s="244"/>
       <c r="E4" s="220"/>
       <c r="F4" s="183">
         <f>C4-E4+F3</f>
-        <v>0</v>
+        <v>233151.7</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="320"/>
-      <c r="B5" s="321"/>
-      <c r="C5" s="322"/>
+      <c r="A5" s="335">
+        <v>45112</v>
+      </c>
+      <c r="B5" s="341" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" s="322">
+        <v>148542.16</v>
+      </c>
       <c r="D5" s="244"/>
       <c r="E5" s="220"/>
       <c r="F5" s="183">
         <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
-        <v>0</v>
+        <v>381693.86</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="320"/>
-      <c r="B6" s="321"/>
-      <c r="C6" s="322"/>
+      <c r="A6" s="335">
+        <v>45113</v>
+      </c>
+      <c r="B6" s="341" t="s">
+        <v>397</v>
+      </c>
+      <c r="C6" s="322">
+        <v>91606.01</v>
+      </c>
       <c r="D6" s="244"/>
       <c r="E6" s="220"/>
       <c r="F6" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>473299.87</v>
       </c>
       <c r="G6" s="184"/>
     </row>
     <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="320"/>
-      <c r="B7" s="321"/>
-      <c r="C7" s="322"/>
+      <c r="A7" s="335">
+        <v>45114</v>
+      </c>
+      <c r="B7" s="341" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" s="322">
+        <v>139761.34</v>
+      </c>
       <c r="D7" s="244"/>
       <c r="E7" s="220"/>
       <c r="F7" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>613061.21</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="320"/>
-      <c r="B8" s="321"/>
-      <c r="C8" s="322"/>
+      <c r="A8" s="335">
+        <v>45114</v>
+      </c>
+      <c r="B8" s="341" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" s="322">
+        <v>19507.55</v>
+      </c>
       <c r="D8" s="244"/>
       <c r="E8" s="220"/>
       <c r="F8" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>632568.76</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="320"/>
-      <c r="B9" s="321"/>
-      <c r="C9" s="322"/>
+      <c r="A9" s="335">
+        <v>45115</v>
+      </c>
+      <c r="B9" s="341" t="s">
+        <v>400</v>
+      </c>
+      <c r="C9" s="322">
+        <v>13626</v>
+      </c>
       <c r="D9" s="181"/>
       <c r="E9" s="149"/>
       <c r="F9" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>646194.76</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="320"/>
-      <c r="B10" s="321"/>
-      <c r="C10" s="322"/>
+      <c r="A10" s="335">
+        <v>45115</v>
+      </c>
+      <c r="B10" s="341" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" s="322">
+        <v>137491.6</v>
+      </c>
       <c r="D10" s="181"/>
       <c r="E10" s="149"/>
       <c r="F10" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>783686.36</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="320"/>
-      <c r="B11" s="321"/>
-      <c r="C11" s="322"/>
+      <c r="A11" s="335">
+        <v>45115</v>
+      </c>
+      <c r="B11" s="341" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" s="322">
+        <v>86570.4</v>
+      </c>
       <c r="D11" s="181"/>
       <c r="E11" s="149"/>
       <c r="F11" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>870256.76</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="320"/>
-      <c r="B12" s="321"/>
-      <c r="C12" s="322"/>
+      <c r="A12" s="335">
+        <v>45117</v>
+      </c>
+      <c r="B12" s="341" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" s="322">
+        <v>76708.800000000003</v>
+      </c>
       <c r="D12" s="181"/>
       <c r="E12" s="149"/>
       <c r="F12" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>946965.56</v>
       </c>
       <c r="G12" s="184"/>
     </row>
     <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="320"/>
-      <c r="B13" s="321"/>
-      <c r="C13" s="322"/>
+      <c r="A13" s="335">
+        <v>45117</v>
+      </c>
+      <c r="B13" s="341" t="s">
+        <v>404</v>
+      </c>
+      <c r="C13" s="322">
+        <v>47903.7</v>
+      </c>
       <c r="D13" s="181"/>
       <c r="E13" s="149"/>
       <c r="F13" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>994869.26</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="320"/>
-      <c r="B14" s="321"/>
-      <c r="C14" s="322"/>
+      <c r="A14" s="335">
+        <v>45118</v>
+      </c>
+      <c r="B14" s="341" t="s">
+        <v>405</v>
+      </c>
+      <c r="C14" s="322">
+        <v>48347.37</v>
+      </c>
       <c r="D14" s="181"/>
       <c r="E14" s="149"/>
       <c r="F14" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1043216.63</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="320"/>
-      <c r="B15" s="321"/>
-      <c r="C15" s="322"/>
+      <c r="A15" s="335">
+        <v>45118</v>
+      </c>
+      <c r="B15" s="341" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" s="322">
+        <v>0</v>
+      </c>
       <c r="D15" s="181"/>
       <c r="E15" s="149"/>
       <c r="F15" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1043216.63</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="320"/>
-      <c r="B16" s="321"/>
-      <c r="C16" s="322"/>
+      <c r="A16" s="335">
+        <v>45119</v>
+      </c>
+      <c r="B16" s="341" t="s">
+        <v>407</v>
+      </c>
+      <c r="C16" s="322">
+        <v>0</v>
+      </c>
       <c r="D16" s="181"/>
       <c r="E16" s="149"/>
       <c r="F16" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1043216.63</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="320"/>
-      <c r="B17" s="321"/>
-      <c r="C17" s="322"/>
+      <c r="A17" s="335">
+        <v>45119</v>
+      </c>
+      <c r="B17" s="341" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" s="322">
+        <v>66833.850000000006</v>
+      </c>
       <c r="D17" s="181"/>
       <c r="E17" s="149"/>
       <c r="F17" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1110050.48</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="320"/>
-      <c r="B18" s="321"/>
-      <c r="C18" s="322"/>
+      <c r="A18" s="335">
+        <v>45119</v>
+      </c>
+      <c r="B18" s="341" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" s="322">
+        <v>1345.4</v>
+      </c>
       <c r="D18" s="181"/>
       <c r="E18" s="149"/>
       <c r="F18" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1111395.8799999999</v>
       </c>
       <c r="J18" s="133" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="320"/>
-      <c r="B19" s="321"/>
-      <c r="C19" s="322"/>
+      <c r="A19" s="335">
+        <v>45120</v>
+      </c>
+      <c r="B19" s="341" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" s="322">
+        <v>62164.47</v>
+      </c>
       <c r="D19" s="181"/>
       <c r="E19" s="149"/>
       <c r="F19" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1173560.3499999999</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="320"/>
-      <c r="B20" s="321"/>
-      <c r="C20" s="322"/>
+      <c r="A20" s="335">
+        <v>45121</v>
+      </c>
+      <c r="B20" s="341" t="s">
+        <v>411</v>
+      </c>
+      <c r="C20" s="322">
+        <v>51273.68</v>
+      </c>
       <c r="D20" s="181"/>
       <c r="E20" s="149"/>
       <c r="F20" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1224834.0299999998</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="320"/>
-      <c r="B21" s="321"/>
-      <c r="C21" s="322"/>
+      <c r="A21" s="335">
+        <v>45122</v>
+      </c>
+      <c r="B21" s="341" t="s">
+        <v>412</v>
+      </c>
+      <c r="C21" s="322">
+        <v>0</v>
+      </c>
       <c r="D21" s="181"/>
       <c r="E21" s="149"/>
       <c r="F21" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1224834.0299999998</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="320"/>
-      <c r="B22" s="321"/>
-      <c r="C22" s="322"/>
+      <c r="A22" s="335">
+        <v>45122</v>
+      </c>
+      <c r="B22" s="341" t="s">
+        <v>413</v>
+      </c>
+      <c r="C22" s="322">
+        <v>49319.38</v>
+      </c>
       <c r="D22" s="181"/>
       <c r="E22" s="149"/>
       <c r="F22" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1274153.4099999997</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="320"/>
-      <c r="B23" s="321"/>
-      <c r="C23" s="322"/>
+      <c r="A23" s="335">
+        <v>45122</v>
+      </c>
+      <c r="B23" s="341" t="s">
+        <v>414</v>
+      </c>
+      <c r="C23" s="322">
+        <v>19983.599999999999</v>
+      </c>
       <c r="D23" s="181"/>
       <c r="E23" s="149"/>
       <c r="F23" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1294137.0099999998</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="320"/>
-      <c r="B24" s="321"/>
-      <c r="C24" s="322"/>
+      <c r="A24" s="335">
+        <v>45122</v>
+      </c>
+      <c r="B24" s="341" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" s="322">
+        <v>60011.519999999997</v>
+      </c>
       <c r="D24" s="181"/>
       <c r="E24" s="149"/>
       <c r="F24" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1354148.5299999998</v>
       </c>
       <c r="G24" s="184"/>
     </row>
     <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="320"/>
-      <c r="B25" s="321"/>
-      <c r="C25" s="322"/>
+      <c r="A25" s="335">
+        <v>45124</v>
+      </c>
+      <c r="B25" s="341" t="s">
+        <v>416</v>
+      </c>
+      <c r="C25" s="322">
+        <v>73787.100000000006</v>
+      </c>
       <c r="D25" s="181"/>
       <c r="E25" s="149"/>
       <c r="F25" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1427935.63</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="320"/>
-      <c r="B26" s="321"/>
-      <c r="C26" s="322"/>
+      <c r="A26" s="335">
+        <v>45124</v>
+      </c>
+      <c r="B26" s="341" t="s">
+        <v>417</v>
+      </c>
+      <c r="C26" s="322">
+        <v>81209.850000000006</v>
+      </c>
       <c r="D26" s="181"/>
       <c r="E26" s="149"/>
       <c r="F26" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1509145.48</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="320"/>
-      <c r="B27" s="321"/>
-      <c r="C27" s="322"/>
+      <c r="A27" s="335">
+        <v>45124</v>
+      </c>
+      <c r="B27" s="341" t="s">
+        <v>418</v>
+      </c>
+      <c r="C27" s="322">
+        <v>0</v>
+      </c>
       <c r="D27" s="181"/>
       <c r="E27" s="149"/>
       <c r="F27" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1509145.48</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="320"/>
-      <c r="B28" s="321"/>
-      <c r="C28" s="322"/>
+      <c r="A28" s="335">
+        <v>45125</v>
+      </c>
+      <c r="B28" s="341" t="s">
+        <v>419</v>
+      </c>
+      <c r="C28" s="322">
+        <v>16014</v>
+      </c>
       <c r="D28" s="181"/>
       <c r="E28" s="149"/>
       <c r="F28" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1525159.48</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="320"/>
-      <c r="B29" s="321"/>
-      <c r="C29" s="322"/>
+      <c r="A29" s="335">
+        <v>45125</v>
+      </c>
+      <c r="B29" s="341" t="s">
+        <v>420</v>
+      </c>
+      <c r="C29" s="322">
+        <v>0</v>
+      </c>
       <c r="D29" s="181"/>
       <c r="E29" s="149"/>
       <c r="F29" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1525159.48</v>
       </c>
       <c r="J29" s="149">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="320"/>
-      <c r="B30" s="321"/>
-      <c r="C30" s="322"/>
+      <c r="A30" s="335">
+        <v>45125</v>
+      </c>
+      <c r="B30" s="341" t="s">
+        <v>421</v>
+      </c>
+      <c r="C30" s="322">
+        <v>17158</v>
+      </c>
       <c r="D30" s="181"/>
       <c r="E30" s="149"/>
       <c r="F30" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1542317.48</v>
       </c>
       <c r="J30" s="149">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="320"/>
-      <c r="B31" s="321"/>
-      <c r="C31" s="322"/>
+      <c r="A31" s="335">
+        <v>45125</v>
+      </c>
+      <c r="B31" s="341" t="s">
+        <v>422</v>
+      </c>
+      <c r="C31" s="322">
+        <v>39357.599999999999</v>
+      </c>
       <c r="D31" s="181"/>
       <c r="E31" s="149"/>
       <c r="F31" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1581675.08</v>
       </c>
       <c r="J31" s="149">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="320"/>
-      <c r="B32" s="321"/>
-      <c r="C32" s="322"/>
+      <c r="A32" s="335">
+        <v>45126</v>
+      </c>
+      <c r="B32" s="341" t="s">
+        <v>423</v>
+      </c>
+      <c r="C32" s="322">
+        <v>79733.740000000005</v>
+      </c>
       <c r="D32" s="181"/>
       <c r="E32" s="149"/>
       <c r="F32" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1661408.82</v>
       </c>
       <c r="G32" s="184"/>
       <c r="J32" s="149">
@@ -17225,70 +17615,100 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="320"/>
-      <c r="B33" s="321"/>
-      <c r="C33" s="322"/>
+      <c r="A33" s="335">
+        <v>45126</v>
+      </c>
+      <c r="B33" s="341" t="s">
+        <v>424</v>
+      </c>
+      <c r="C33" s="322">
+        <v>0</v>
+      </c>
       <c r="D33" s="181"/>
       <c r="E33" s="149"/>
       <c r="F33" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1661408.82</v>
       </c>
       <c r="J33" s="149">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="320"/>
-      <c r="B34" s="321"/>
-      <c r="C34" s="322"/>
+      <c r="A34" s="335">
+        <v>45126</v>
+      </c>
+      <c r="B34" s="341" t="s">
+        <v>425</v>
+      </c>
+      <c r="C34" s="322">
+        <v>594</v>
+      </c>
       <c r="D34" s="181"/>
       <c r="E34" s="149"/>
       <c r="F34" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1662002.82</v>
       </c>
       <c r="J34" s="149">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="320"/>
-      <c r="B35" s="321"/>
-      <c r="C35" s="322"/>
+      <c r="A35" s="335">
+        <v>45126</v>
+      </c>
+      <c r="B35" s="341" t="s">
+        <v>426</v>
+      </c>
+      <c r="C35" s="322">
+        <v>0</v>
+      </c>
       <c r="D35" s="181"/>
       <c r="E35" s="149"/>
       <c r="F35" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1662002.82</v>
       </c>
       <c r="J35" s="149">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="320"/>
-      <c r="B36" s="321"/>
-      <c r="C36" s="322"/>
+      <c r="A36" s="335">
+        <v>45127</v>
+      </c>
+      <c r="B36" s="341" t="s">
+        <v>427</v>
+      </c>
+      <c r="C36" s="322">
+        <v>0</v>
+      </c>
       <c r="D36" s="181"/>
       <c r="E36" s="149"/>
       <c r="F36" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1662002.82</v>
       </c>
       <c r="J36" s="133">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="320"/>
-      <c r="B37" s="321"/>
-      <c r="C37" s="322"/>
+      <c r="A37" s="335">
+        <v>45127</v>
+      </c>
+      <c r="B37" s="341" t="s">
+        <v>428</v>
+      </c>
+      <c r="C37" s="322">
+        <v>89753.15</v>
+      </c>
       <c r="D37" s="181"/>
       <c r="E37" s="149"/>
       <c r="F37" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1751755.97</v>
       </c>
       <c r="J37" s="187">
         <f>SUM(J29:J36)</f>
@@ -17296,447 +17716,579 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="320"/>
-      <c r="B38" s="321"/>
-      <c r="C38" s="322"/>
+      <c r="A38" s="335">
+        <v>45128</v>
+      </c>
+      <c r="B38" s="341" t="s">
+        <v>429</v>
+      </c>
+      <c r="C38" s="322">
+        <v>8469.0499999999993</v>
+      </c>
       <c r="D38" s="181"/>
       <c r="E38" s="149"/>
       <c r="F38" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1760225.02</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="320"/>
-      <c r="B39" s="321"/>
-      <c r="C39" s="322"/>
+      <c r="A39" s="335">
+        <v>45128</v>
+      </c>
+      <c r="B39" s="341" t="s">
+        <v>430</v>
+      </c>
+      <c r="C39" s="322">
+        <v>69894.600000000006</v>
+      </c>
       <c r="D39" s="181"/>
       <c r="E39" s="149"/>
       <c r="F39" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1830119.62</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="320"/>
-      <c r="B40" s="321"/>
-      <c r="C40" s="322"/>
+      <c r="A40" s="335">
+        <v>45128</v>
+      </c>
+      <c r="B40" s="341" t="s">
+        <v>431</v>
+      </c>
+      <c r="C40" s="322">
+        <v>0</v>
+      </c>
       <c r="D40" s="181"/>
       <c r="E40" s="100"/>
       <c r="F40" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1830119.62</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="320"/>
-      <c r="B41" s="321"/>
-      <c r="C41" s="322"/>
+      <c r="A41" s="335">
+        <v>45128</v>
+      </c>
+      <c r="B41" s="341" t="s">
+        <v>432</v>
+      </c>
+      <c r="C41" s="322">
+        <v>3432.8</v>
+      </c>
       <c r="D41" s="181"/>
       <c r="E41" s="100"/>
       <c r="F41" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1833552.4200000002</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="320"/>
-      <c r="B42" s="321"/>
-      <c r="C42" s="322"/>
+      <c r="A42" s="335">
+        <v>45128</v>
+      </c>
+      <c r="B42" s="341" t="s">
+        <v>433</v>
+      </c>
+      <c r="C42" s="322">
+        <v>0</v>
+      </c>
       <c r="D42" s="185"/>
       <c r="E42" s="100"/>
       <c r="F42" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1833552.4200000002</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="320"/>
-      <c r="B43" s="321"/>
-      <c r="C43" s="322"/>
+      <c r="A43" s="335">
+        <v>45129</v>
+      </c>
+      <c r="B43" s="341" t="s">
+        <v>434</v>
+      </c>
+      <c r="C43" s="322">
+        <v>0</v>
+      </c>
       <c r="D43" s="192"/>
       <c r="E43" s="100"/>
       <c r="F43" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1833552.4200000002</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="320"/>
-      <c r="B44" s="321"/>
-      <c r="C44" s="322"/>
+      <c r="A44" s="335">
+        <v>45129</v>
+      </c>
+      <c r="B44" s="341" t="s">
+        <v>435</v>
+      </c>
+      <c r="C44" s="322">
+        <v>55115.4</v>
+      </c>
       <c r="D44" s="192"/>
       <c r="E44" s="100"/>
       <c r="F44" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1888667.82</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="320"/>
-      <c r="B45" s="321"/>
-      <c r="C45" s="322"/>
+      <c r="A45" s="335">
+        <v>45129</v>
+      </c>
+      <c r="B45" s="341" t="s">
+        <v>436</v>
+      </c>
+      <c r="C45" s="322">
+        <v>66157.350000000006</v>
+      </c>
       <c r="D45" s="192"/>
       <c r="E45" s="100"/>
       <c r="F45" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1954825.1700000002</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="320"/>
-      <c r="B46" s="321"/>
-      <c r="C46" s="322"/>
+      <c r="A46" s="335">
+        <v>45129</v>
+      </c>
+      <c r="B46" s="341" t="s">
+        <v>437</v>
+      </c>
+      <c r="C46" s="322">
+        <v>1730.4</v>
+      </c>
       <c r="D46" s="192"/>
       <c r="E46" s="100"/>
       <c r="F46" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1956555.57</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="325"/>
-      <c r="B47" s="321"/>
-      <c r="C47" s="322"/>
+      <c r="A47" s="335">
+        <v>45131</v>
+      </c>
+      <c r="B47" s="341" t="s">
+        <v>438</v>
+      </c>
+      <c r="C47" s="322">
+        <v>8367.4</v>
+      </c>
       <c r="D47" s="192"/>
       <c r="E47" s="100"/>
       <c r="F47" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1964922.97</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="325"/>
-      <c r="B48" s="321"/>
-      <c r="C48" s="322"/>
+      <c r="A48" s="335">
+        <v>45131</v>
+      </c>
+      <c r="B48" s="341" t="s">
+        <v>439</v>
+      </c>
+      <c r="C48" s="322">
+        <v>69725.83</v>
+      </c>
       <c r="D48" s="192"/>
       <c r="E48" s="100"/>
       <c r="F48" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2034648.8</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="325"/>
-      <c r="B49" s="321"/>
-      <c r="C49" s="322"/>
+      <c r="A49" s="335">
+        <v>45133</v>
+      </c>
+      <c r="B49" s="341" t="s">
+        <v>440</v>
+      </c>
+      <c r="C49" s="322">
+        <v>71238.23</v>
+      </c>
       <c r="D49" s="192"/>
       <c r="E49" s="100"/>
       <c r="F49" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2105887.0300000003</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="325"/>
-      <c r="B50" s="321"/>
-      <c r="C50" s="322"/>
+      <c r="A50" s="335">
+        <v>45133</v>
+      </c>
+      <c r="B50" s="341" t="s">
+        <v>441</v>
+      </c>
+      <c r="C50" s="322">
+        <v>0</v>
+      </c>
       <c r="D50" s="192"/>
       <c r="E50" s="100"/>
       <c r="F50" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2105887.0300000003</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="325"/>
-      <c r="B51" s="321"/>
-      <c r="C51" s="322"/>
+      <c r="A51" s="335">
+        <v>45134</v>
+      </c>
+      <c r="B51" s="341" t="s">
+        <v>442</v>
+      </c>
+      <c r="C51" s="322">
+        <v>0</v>
+      </c>
       <c r="D51" s="192"/>
       <c r="E51" s="100"/>
       <c r="F51" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2105887.0300000003</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="324"/>
-      <c r="B52" s="248"/>
-      <c r="C52" s="149"/>
+      <c r="A52" s="336">
+        <v>45134</v>
+      </c>
+      <c r="B52" s="248" t="s">
+        <v>443</v>
+      </c>
+      <c r="C52" s="149">
+        <v>68136.3</v>
+      </c>
       <c r="D52" s="192"/>
       <c r="E52" s="100"/>
       <c r="F52" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2174023.33</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="324"/>
-      <c r="B53" s="248"/>
-      <c r="C53" s="149"/>
+      <c r="A53" s="336">
+        <v>45135</v>
+      </c>
+      <c r="B53" s="248" t="s">
+        <v>444</v>
+      </c>
+      <c r="C53" s="149">
+        <v>331.8</v>
+      </c>
       <c r="D53" s="192"/>
       <c r="E53" s="100"/>
       <c r="F53" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2174355.13</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="324"/>
-      <c r="B54" s="248"/>
-      <c r="C54" s="149"/>
+      <c r="A54" s="336">
+        <v>45135</v>
+      </c>
+      <c r="B54" s="248" t="s">
+        <v>445</v>
+      </c>
+      <c r="C54" s="149">
+        <v>79638.87</v>
+      </c>
       <c r="D54" s="192"/>
       <c r="E54" s="100"/>
       <c r="F54" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2253994</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="246"/>
-      <c r="B55" s="248"/>
-      <c r="C55" s="149"/>
+      <c r="A55" s="336">
+        <v>45135</v>
+      </c>
+      <c r="B55" s="248" t="s">
+        <v>446</v>
+      </c>
+      <c r="C55" s="149">
+        <v>0</v>
+      </c>
       <c r="D55" s="192"/>
       <c r="E55" s="100"/>
       <c r="F55" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2253994</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="246"/>
-      <c r="B56" s="248"/>
-      <c r="C56" s="149"/>
+      <c r="A56" s="336">
+        <v>45135</v>
+      </c>
+      <c r="B56" s="248" t="s">
+        <v>447</v>
+      </c>
+      <c r="C56" s="149">
+        <v>27350.46</v>
+      </c>
       <c r="D56" s="192"/>
       <c r="E56" s="100"/>
       <c r="F56" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="193"/>
-      <c r="B57" s="194"/>
-      <c r="C57" s="100"/>
+        <v>2281344.46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="337">
+        <v>45136</v>
+      </c>
+      <c r="B57" s="194" t="s">
+        <v>448</v>
+      </c>
+      <c r="C57" s="100">
+        <v>0</v>
+      </c>
       <c r="D57" s="192"/>
       <c r="E57" s="100"/>
       <c r="F57" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="193"/>
-      <c r="B58" s="194"/>
-      <c r="C58" s="100"/>
+        <v>2281344.46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="337">
+        <v>45136</v>
+      </c>
+      <c r="B58" s="194" t="s">
+        <v>449</v>
+      </c>
+      <c r="C58" s="100">
+        <v>60701.279999999999</v>
+      </c>
       <c r="D58" s="192"/>
       <c r="E58" s="100"/>
       <c r="F58" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="193"/>
-      <c r="B59" s="194"/>
-      <c r="C59" s="100"/>
+        <v>2342045.7399999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="337">
+        <v>45136</v>
+      </c>
+      <c r="B59" s="194" t="s">
+        <v>450</v>
+      </c>
+      <c r="C59" s="100">
+        <v>54648</v>
+      </c>
       <c r="D59" s="192"/>
       <c r="E59" s="100"/>
       <c r="F59" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="193"/>
+        <v>2396693.7399999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="337"/>
       <c r="B60" s="194"/>
       <c r="C60" s="100"/>
       <c r="D60" s="192"/>
       <c r="E60" s="100"/>
       <c r="F60" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="193"/>
+        <v>2396693.7399999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="337"/>
       <c r="B61" s="194"/>
       <c r="C61" s="100"/>
       <c r="D61" s="192"/>
       <c r="E61" s="100"/>
       <c r="F61" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="195"/>
+        <v>2396693.7399999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="338"/>
       <c r="B62" s="196"/>
       <c r="C62" s="36"/>
       <c r="D62" s="197"/>
       <c r="E62" s="36"/>
       <c r="F62" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="195"/>
+      <c r="A63" s="338"/>
       <c r="B63" s="196"/>
       <c r="C63" s="36"/>
       <c r="D63" s="197"/>
       <c r="E63" s="36"/>
       <c r="F63" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="195"/>
+      <c r="A64" s="338"/>
       <c r="B64" s="196"/>
       <c r="C64" s="36"/>
       <c r="D64" s="197"/>
       <c r="E64" s="36"/>
       <c r="F64" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="195"/>
+      <c r="A65" s="338"/>
       <c r="B65" s="196"/>
       <c r="C65" s="36"/>
       <c r="D65" s="197"/>
       <c r="E65" s="36"/>
       <c r="F65" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="195"/>
+      <c r="A66" s="338"/>
       <c r="B66" s="196"/>
       <c r="C66" s="36"/>
       <c r="D66" s="197"/>
       <c r="E66" s="36"/>
       <c r="F66" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="195"/>
+      <c r="A67" s="338"/>
       <c r="B67" s="196"/>
       <c r="C67" s="36"/>
       <c r="D67" s="197"/>
       <c r="E67" s="36"/>
       <c r="F67" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="193"/>
+      <c r="A68" s="337"/>
       <c r="B68" s="198"/>
       <c r="C68" s="100"/>
       <c r="D68" s="192"/>
       <c r="E68" s="100"/>
       <c r="F68" s="183">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="193"/>
+      <c r="A69" s="337"/>
       <c r="B69" s="198"/>
       <c r="C69" s="100"/>
       <c r="D69" s="192"/>
       <c r="E69" s="100"/>
       <c r="F69" s="183">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="193"/>
+      <c r="A70" s="337"/>
       <c r="B70" s="198"/>
       <c r="C70" s="100"/>
       <c r="D70" s="192"/>
       <c r="E70" s="100"/>
       <c r="F70" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="193"/>
+      <c r="A71" s="337"/>
       <c r="B71" s="198"/>
       <c r="C71" s="100"/>
       <c r="D71" s="192"/>
       <c r="E71" s="100"/>
       <c r="F71" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="193"/>
+      <c r="A72" s="337"/>
       <c r="B72" s="198"/>
       <c r="C72" s="100"/>
       <c r="D72" s="192"/>
       <c r="E72" s="100"/>
       <c r="F72" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="193"/>
+      <c r="A73" s="337"/>
       <c r="B73" s="198"/>
       <c r="C73" s="100"/>
       <c r="D73" s="192"/>
       <c r="E73" s="100"/>
       <c r="F73" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="193"/>
+      <c r="A74" s="337"/>
       <c r="B74" s="198"/>
       <c r="C74" s="100"/>
       <c r="D74" s="192"/>
       <c r="E74" s="100"/>
       <c r="F74" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="193"/>
+      <c r="A75" s="337"/>
       <c r="B75" s="198"/>
       <c r="C75" s="100"/>
       <c r="D75" s="192"/>
       <c r="E75" s="100"/>
       <c r="F75" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="193"/>
+      <c r="A76" s="337"/>
       <c r="B76" s="198"/>
       <c r="C76" s="100"/>
       <c r="D76" s="192"/>
       <c r="E76" s="100"/>
       <c r="F76" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="193"/>
+      <c r="A77" s="337"/>
       <c r="B77" s="198"/>
       <c r="C77" s="100"/>
       <c r="D77" s="192"/>
       <c r="E77" s="100"/>
       <c r="F77" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="199"/>
+      <c r="A78" s="339"/>
       <c r="B78" s="200"/>
       <c r="C78" s="36">
         <v>0</v>
@@ -17745,15 +18297,15 @@
       <c r="E78" s="36"/>
       <c r="F78" s="183">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="201"/>
+      <c r="A79" s="340"/>
       <c r="B79" s="202"/>
       <c r="C79" s="317">
         <f>SUM(C3:C78)</f>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
       <c r="D79" s="175"/>
       <c r="E79" s="204">
@@ -17762,7 +18314,7 @@
       </c>
       <c r="F79" s="205">
         <f>F78</f>
-        <v>0</v>
+        <v>2396693.7399999998</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -17905,6 +18457,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19279,23 +19832,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="356" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="355"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -19305,21 +19858,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="359"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="360"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="353" t="s">
+      <c r="R3" s="363" t="s">
         <v>2</v>
       </c>
     </row>
@@ -19334,14 +19887,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="356"/>
-      <c r="H4" s="357" t="s">
+      <c r="F4" s="366"/>
+      <c r="H4" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="358"/>
+      <c r="I4" s="368"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -19351,11 +19904,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="371" t="s">
+      <c r="P4" s="381" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="372"/>
-      <c r="R4" s="370"/>
+      <c r="Q4" s="382"/>
+      <c r="R4" s="380"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -21156,11 +21709,11 @@
       <c r="J45" s="74"/>
       <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="351">
+      <c r="M45" s="361">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N45" s="362">
+      <c r="N45" s="372">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -21190,8 +21743,8 @@
       <c r="J46" s="74"/>
       <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="352"/>
-      <c r="N46" s="363"/>
+      <c r="M46" s="362"/>
+      <c r="N46" s="373"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -21283,29 +21836,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="364" t="s">
+      <c r="H51" s="374" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="365"/>
+      <c r="I51" s="375"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="366">
+      <c r="K51" s="376">
         <f>I49+L49</f>
         <v>90767.040000000008</v>
       </c>
-      <c r="L51" s="367"/>
-      <c r="M51" s="368">
+      <c r="L51" s="377"/>
+      <c r="M51" s="378">
         <f>N45+M45</f>
         <v>2335781</v>
       </c>
-      <c r="N51" s="369"/>
+      <c r="N51" s="379"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="361" t="s">
+      <c r="D52" s="371" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="361"/>
+      <c r="E52" s="371"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2261973.96</v>
@@ -21316,22 +21869,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D53" s="332" t="s">
+      <c r="D53" s="342" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="332"/>
+      <c r="E53" s="342"/>
       <c r="F53" s="131">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I53" s="333" t="s">
+      <c r="I53" s="343" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="334"/>
-      <c r="K53" s="335">
+      <c r="J53" s="344"/>
+      <c r="K53" s="345">
         <f>F55+F56+F57</f>
         <v>296963.76999999973</v>
       </c>
-      <c r="L53" s="336"/>
+      <c r="L53" s="346"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -21362,11 +21915,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="337">
+      <c r="K55" s="347">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L55" s="338"/>
+      <c r="L55" s="348"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -21383,22 +21936,22 @@
       <c r="C57" s="150">
         <v>44985</v>
       </c>
-      <c r="D57" s="339" t="s">
+      <c r="D57" s="349" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="340"/>
+      <c r="E57" s="350"/>
       <c r="F57" s="151">
         <v>230554.55</v>
       </c>
-      <c r="I57" s="341" t="s">
+      <c r="I57" s="351" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="342"/>
-      <c r="K57" s="343">
+      <c r="J57" s="352"/>
+      <c r="K57" s="353">
         <f>K53+K55</f>
         <v>73434.869999999733</v>
       </c>
-      <c r="L57" s="343"/>
+      <c r="L57" s="353"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -23002,23 +23555,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="356" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="355"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -23028,21 +23581,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="359"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="360"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="353" t="s">
+      <c r="R3" s="363" t="s">
         <v>2</v>
       </c>
     </row>
@@ -23057,14 +23610,14 @@
       <c r="D4" s="17">
         <v>44985</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="356"/>
-      <c r="H4" s="357" t="s">
+      <c r="F4" s="366"/>
+      <c r="H4" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="358"/>
+      <c r="I4" s="368"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -23074,11 +23627,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="371" t="s">
+      <c r="P4" s="381" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="372"/>
-      <c r="R4" s="370"/>
+      <c r="Q4" s="382"/>
+      <c r="R4" s="380"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -24871,11 +25424,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="231"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="351">
+      <c r="M45" s="361">
         <f>SUM(M5:M39)</f>
         <v>2689952</v>
       </c>
-      <c r="N45" s="362">
+      <c r="N45" s="372">
         <f>SUM(N5:N39)</f>
         <v>61422</v>
       </c>
@@ -24905,8 +25458,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="352"/>
-      <c r="N46" s="363"/>
+      <c r="M46" s="362"/>
+      <c r="N46" s="373"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -24998,29 +25551,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="364" t="s">
+      <c r="H51" s="374" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="365"/>
+      <c r="I51" s="375"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="366">
+      <c r="K51" s="376">
         <f>I49+L49</f>
         <v>425400.67</v>
       </c>
-      <c r="L51" s="367"/>
-      <c r="M51" s="368">
+      <c r="L51" s="377"/>
+      <c r="M51" s="378">
         <f>N45+M45</f>
         <v>2751374</v>
       </c>
-      <c r="N51" s="369"/>
+      <c r="N51" s="379"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="361" t="s">
+      <c r="D52" s="371" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="361"/>
+      <c r="E52" s="371"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2464124.33</v>
@@ -25031,22 +25584,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="332" t="s">
+      <c r="D53" s="342" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="332"/>
+      <c r="E53" s="342"/>
       <c r="F53" s="131">
         <v>-2869426.04</v>
       </c>
-      <c r="I53" s="333" t="s">
+      <c r="I53" s="343" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="334"/>
-      <c r="K53" s="373">
+      <c r="J53" s="344"/>
+      <c r="K53" s="383">
         <f>F55+F56+F57</f>
         <v>-32021.369999999937</v>
       </c>
-      <c r="L53" s="374"/>
+      <c r="L53" s="384"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -25077,11 +25630,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="375">
+      <c r="K55" s="385">
         <f>-C4</f>
         <v>-230554.55</v>
       </c>
-      <c r="L55" s="376"/>
+      <c r="L55" s="386"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -25098,22 +25651,22 @@
       <c r="C57" s="150">
         <v>45015</v>
       </c>
-      <c r="D57" s="339" t="s">
+      <c r="D57" s="349" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="340"/>
+      <c r="E57" s="350"/>
       <c r="F57" s="151">
         <v>341192.34</v>
       </c>
-      <c r="I57" s="377" t="s">
+      <c r="I57" s="387" t="s">
         <v>170</v>
       </c>
-      <c r="J57" s="378"/>
-      <c r="K57" s="379">
+      <c r="J57" s="388"/>
+      <c r="K57" s="389">
         <f>K53+K55</f>
         <v>-262575.91999999993</v>
       </c>
-      <c r="L57" s="379"/>
+      <c r="L57" s="389"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -26660,23 +27213,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="356" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="355"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -26689,21 +27242,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="359"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="360"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="383" t="s">
+      <c r="R3" s="393" t="s">
         <v>2</v>
       </c>
     </row>
@@ -26718,14 +27271,14 @@
       <c r="D4" s="17">
         <v>45015</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="356"/>
-      <c r="H4" s="357" t="s">
+      <c r="F4" s="366"/>
+      <c r="H4" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="358"/>
+      <c r="I4" s="368"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -26735,11 +27288,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="371" t="s">
+      <c r="P4" s="381" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="372"/>
-      <c r="R4" s="384"/>
+      <c r="Q4" s="382"/>
+      <c r="R4" s="394"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -28626,11 +29179,11 @@
       <c r="L45" s="312">
         <v>2123.98</v>
       </c>
-      <c r="M45" s="351">
+      <c r="M45" s="361">
         <f>SUM(M5:M39)</f>
         <v>2488709</v>
       </c>
-      <c r="N45" s="362">
+      <c r="N45" s="372">
         <f>SUM(N5:N39)</f>
         <v>78710</v>
       </c>
@@ -28666,8 +29219,8 @@
       <c r="L46" s="281">
         <v>34015</v>
       </c>
-      <c r="M46" s="352"/>
-      <c r="N46" s="363"/>
+      <c r="M46" s="362"/>
+      <c r="N46" s="373"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -28759,29 +29312,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="364" t="s">
+      <c r="H51" s="374" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="365"/>
+      <c r="I51" s="375"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="366">
+      <c r="K51" s="376">
         <f>I49+L49</f>
         <v>124244.06999999999</v>
       </c>
-      <c r="L51" s="367"/>
-      <c r="M51" s="368">
+      <c r="L51" s="377"/>
+      <c r="M51" s="378">
         <f>N45+M45</f>
         <v>2567419</v>
       </c>
-      <c r="N51" s="369"/>
+      <c r="N51" s="379"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="361" t="s">
+      <c r="D52" s="371" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="361"/>
+      <c r="E52" s="371"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2480239.9300000002</v>
@@ -28792,22 +29345,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="332" t="s">
+      <c r="D53" s="342" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="332"/>
+      <c r="E53" s="342"/>
       <c r="F53" s="131">
         <v>-2463938.5299999998</v>
       </c>
-      <c r="I53" s="333" t="s">
+      <c r="I53" s="343" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="334"/>
-      <c r="K53" s="373">
+      <c r="J53" s="344"/>
+      <c r="K53" s="383">
         <f>F55+F56+F57</f>
         <v>439109.10000000038</v>
       </c>
-      <c r="L53" s="374"/>
+      <c r="L53" s="384"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -28838,11 +29391,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="375">
+      <c r="K55" s="385">
         <f>-C4</f>
         <v>-341192.34</v>
       </c>
-      <c r="L55" s="376"/>
+      <c r="L55" s="386"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -28859,22 +29412,22 @@
       <c r="C57" s="150">
         <v>45050</v>
       </c>
-      <c r="D57" s="339" t="s">
+      <c r="D57" s="349" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="340"/>
+      <c r="E57" s="350"/>
       <c r="F57" s="151">
         <v>394548.7</v>
       </c>
-      <c r="I57" s="380" t="s">
+      <c r="I57" s="390" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="381"/>
-      <c r="K57" s="382">
+      <c r="J57" s="391"/>
+      <c r="K57" s="392">
         <f>K53+K55</f>
         <v>97916.760000000359</v>
       </c>
-      <c r="L57" s="382"/>
+      <c r="L57" s="392"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
@@ -30411,23 +30964,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="344"/>
-      <c r="C1" s="346" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="356" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
-      <c r="F1" s="347"/>
-      <c r="G1" s="347"/>
-      <c r="H1" s="347"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="347"/>
-      <c r="K1" s="347"/>
-      <c r="L1" s="347"/>
-      <c r="M1" s="347"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="345"/>
+      <c r="B2" s="355"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -30440,21 +30993,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="348" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="349"/>
+      <c r="B3" s="358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="359"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="350" t="s">
+      <c r="H3" s="360" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="350"/>
+      <c r="I3" s="360"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="385" t="s">
+      <c r="R3" s="395" t="s">
         <v>2</v>
       </c>
     </row>
@@ -30469,14 +31022,14 @@
       <c r="D4" s="307">
         <v>45050</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="356"/>
-      <c r="H4" s="357" t="s">
+      <c r="F4" s="366"/>
+      <c r="H4" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="358"/>
+      <c r="I4" s="368"/>
       <c r="J4" s="255"/>
       <c r="K4" s="256"/>
       <c r="L4" s="16"/>
@@ -30486,11 +31039,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="371" t="s">
+      <c r="P4" s="381" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="372"/>
-      <c r="R4" s="386"/>
+      <c r="Q4" s="382"/>
+      <c r="R4" s="396"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -32363,11 +32916,11 @@
       <c r="J45" s="86"/>
       <c r="K45" s="89"/>
       <c r="L45" s="281"/>
-      <c r="M45" s="351">
+      <c r="M45" s="361">
         <f>SUM(M5:M39)</f>
         <v>3007589</v>
       </c>
-      <c r="N45" s="362">
+      <c r="N45" s="372">
         <f>SUM(N5:N39)</f>
         <v>29752</v>
       </c>
@@ -32397,8 +32950,8 @@
       <c r="J46" s="86"/>
       <c r="K46" s="102"/>
       <c r="L46" s="281"/>
-      <c r="M46" s="352"/>
-      <c r="N46" s="363"/>
+      <c r="M46" s="362"/>
+      <c r="N46" s="373"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="13">
@@ -32490,29 +33043,29 @@
       <c r="A51" s="133"/>
       <c r="B51" s="134"/>
       <c r="C51" s="1"/>
-      <c r="H51" s="364" t="s">
+      <c r="H51" s="374" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="365"/>
+      <c r="I51" s="375"/>
       <c r="J51" s="135"/>
-      <c r="K51" s="366">
+      <c r="K51" s="376">
         <f>I49+L49</f>
         <v>84500.43</v>
       </c>
-      <c r="L51" s="367"/>
-      <c r="M51" s="368">
+      <c r="L51" s="377"/>
+      <c r="M51" s="378">
         <f>N45+M45</f>
         <v>3037341</v>
       </c>
-      <c r="N51" s="369"/>
+      <c r="N51" s="379"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D52" s="361" t="s">
+      <c r="D52" s="371" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="361"/>
+      <c r="E52" s="371"/>
       <c r="F52" s="136">
         <f>F49-K51-C49</f>
         <v>2988109.57</v>
@@ -32523,22 +33076,22 @@
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="332" t="s">
+      <c r="D53" s="342" t="s">
         <v>15</v>
       </c>
-      <c r="E53" s="332"/>
+      <c r="E53" s="342"/>
       <c r="F53" s="131">
         <v>-2955802.29</v>
       </c>
-      <c r="I53" s="333" t="s">
+      <c r="I53" s="343" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="334"/>
-      <c r="K53" s="373">
+      <c r="J53" s="344"/>
+      <c r="K53" s="383">
         <f>F55+F56+F57</f>
         <v>419364.9699999998</v>
       </c>
-      <c r="L53" s="374"/>
+      <c r="L53" s="384"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
@@ -32569,11 +33122,11 @@
         <v>18</v>
       </c>
       <c r="J55" s="147"/>
-      <c r="K55" s="375">
+      <c r="K55" s="385">
         <f>-C4</f>
         <v>-394548.7</v>
       </c>
-      <c r="L55" s="376"/>
+      <c r="L55" s="386"/>
     </row>
     <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="148" t="s">
@@ -32590,22 +33143,22 @@
       <c r="C57" s="150">
         <v>45081</v>
       </c>
-      <c r="D57" s="339" t="s">
+      <c r="D57" s="349" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="340"/>
+      <c r="E57" s="350"/>
       <c r="F57" s="316">
         <v>345633.69</v>
       </c>
-      <c r="I57" s="380" t="s">
+      <c r="I57" s="390" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="381"/>
-      <c r="K57" s="382">
+      <c r="J57" s="391"/>
+      <c r="K57" s="392">
         <f>K53+K55</f>
         <v>24816.269999999786</v>
       </c>
-      <c r="L57" s="382"/>
+      <c r="L57" s="392"/>
     </row>
     <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C58" s="152"/>
